--- a/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
+++ b/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
@@ -4881,7 +4881,7 @@
   <dimension ref="A1:X332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
+++ b/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
@@ -2189,7 +2189,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2310,7 +2309,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2414,7 +2412,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2513,7 +2510,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4912,7 +4908,7 @@
   <dimension ref="A1:X332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14939,7 +14935,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
+++ b/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Pulley pitch diameter (m)</t>
-  </si>
-  <si>
-    <t>Load independed resistance (Nm)</t>
   </si>
   <si>
     <t>Coefficient of dynamic friction</t>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>M5 Wing Nut</t>
+  </si>
+  <si>
+    <t>Load independet resistance (Nm)</t>
   </si>
 </sst>
 </file>
@@ -2189,6 +2189,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2309,6 +2310,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2412,6 +2414,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2510,6 +2513,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4907,8 +4911,8 @@
   </sheetPr>
   <dimension ref="A1:X332"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,18 +4936,18 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -4958,22 +4962,22 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W5">
         <v>3000</v>
       </c>
       <c r="X5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -5002,7 +5006,7 @@
         <v>0.32085561497326209</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -5028,18 +5032,18 @@
         <v>13.333333333333334</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W7">
         <v>1.6</v>
       </c>
       <c r="X7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12">
         <f>B7*10000</f>
@@ -5050,7 +5054,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8">
         <f>($I$7-$I$6)/(J7-J6)</f>
@@ -5061,29 +5065,29 @@
         <v>-3.0890947499999998E-2</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W8">
         <v>0.48631578813043097</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B10" s="19">
         <v>8</v>
@@ -5094,7 +5098,7 @@
       <c r="F10" s="5"/>
       <c r="I10" s="22"/>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10">
         <v>0.1</v>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
         <v>0.1</v>
@@ -5112,7 +5116,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W11">
         <v>7.4999999999999997E-2</v>
@@ -5120,7 +5124,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7">
         <v>9.8000000000000007</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
@@ -5144,7 +5148,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15">
         <f>(B11*B12*B13)+B10</f>
@@ -5157,7 +5161,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.76454999999999995</v>
@@ -5165,21 +5169,21 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
         <v>29</v>
       </c>
-      <c r="K19" t="s">
-        <v>30</v>
-      </c>
       <c r="U19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X19" t="s">
         <v>16</v>
-      </c>
-      <c r="X19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <f>B7</f>
@@ -5188,7 +5192,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <f>B14</f>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <f>-K8</f>
@@ -5206,7 +5210,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <f>I6</f>
@@ -5218,7 +5222,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <f>B13</f>
@@ -5241,19 +5245,19 @@
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="T28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -5274,16 +5278,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="W29" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -14946,12 +14950,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>90</v>
@@ -14959,7 +14963,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -14967,7 +14971,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -14975,12 +14979,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -14988,7 +14992,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -14996,7 +15000,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>195</v>
@@ -15004,7 +15008,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>75</v>
@@ -15012,7 +15016,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <f>SUM(B2:B10)</f>

--- a/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
+++ b/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Paddle Controller System Sizing</t>
   </si>
@@ -188,11 +188,56 @@
   <si>
     <t>Load independet resistance (Nm)</t>
   </si>
+  <si>
+    <t>Rod Volume</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Net Area</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>in^3</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>lb/in^3</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>grams</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +393,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2189,7 +2234,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2310,7 +2354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2414,7 +2457,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2513,7 +2555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4911,8 +4952,8 @@
   </sheetPr>
   <dimension ref="A1:X332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14936,10 +14977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14948,12 +14989,12 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -14961,7 +15002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>50</v>
       </c>
@@ -14969,7 +15010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>51</v>
       </c>
@@ -14977,50 +15018,147 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <f>PI()*(P7/2)^2</f>
+        <v>0.19634954084936207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <f>P7-P8</f>
+        <v>0.435</v>
+      </c>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S8:S9" si="0">PI()*(P9/2)^2</f>
+        <v>0.14861696746888214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10">
+        <f>S7-S9</f>
+        <v>4.7732573380479926E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13">
+        <f>S10*S12</f>
+        <v>1.8138377884582373</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16">
+        <f>S13*S15</f>
+        <v>0.17684918437467814</v>
+      </c>
+      <c r="T16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f>S16*453.592</f>
+        <v>80.217375238879001</v>
+      </c>
+      <c r="T17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
+++ b/4_Paddle_Controller/Paddle_Controller_System_Sizing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -413,8 +413,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,7 +628,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -746,7 +745,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1052,7 +1050,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1170,7 +1167,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1790,7 +1786,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1911,7 +1906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2015,7 +2009,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2114,7 +2107,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2685,7 +2677,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2806,7 +2797,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2910,7 +2900,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3009,7 +2998,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4157,7 +4145,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4275,7 +4262,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4895,7 +4881,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5016,7 +5001,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5120,7 +5104,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5219,7 +5202,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5857,79 +5839,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89388138718947907</c:v>
+                  <c:v>0.36212175541430547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7050908647248431</c:v>
+                  <c:v>0.70709163557397225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4412744634372601</c:v>
+                  <c:v>1.0357220380230618</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1093710599659161</c:v>
+                  <c:v>1.3487868811446244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7156777789336353</c:v>
+                  <c:v>1.6470234267238553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2659093463079376</c:v>
+                  <c:v>1.9311340161856538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7652519533808828</c:v>
+                  <c:v>2.2017877245954001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2184121390610017</c:v>
+                  <c:v>2.4596219363180758</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.629661151215986</c:v>
+                  <c:v>2.705243846046395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0028752051925496</c:v>
+                  <c:v>2.9392318887328219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3415720189690363</c:v>
+                  <c:v>3.1621371017929434</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6489439693017216</c:v>
+                  <c:v>3.3744844227881661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.927888181377087</c:v>
+                  <c:v>3.5767739256437387</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1810338355791981</c:v>
+                  <c:v>3.7694819983134007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4107669487513057</c:v>
+                  <c:v>3.9530624646639918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6192528635267252</c:v>
+                  <c:v>4.1279476532220869</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8084566577014884</c:v>
+                  <c:v>4.2945494152994907</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9801616660167403</c:v>
+                  <c:v>4.4532600948953007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.1359862889273593</c:v>
+                  <c:v>4.6044534526585874</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.2773992467873629</c:v>
+                  <c:v>4.7484855460876751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.4057334232299787</c:v>
+                  <c:v>4.8856955680388037</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5221984282227243</c:v>
+                  <c:v>5.0164066455188951</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6278919992102274</c:v>
+                  <c:v>5.1409266006435423</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.7238103478058946</c:v>
+                  <c:v>5.2595486755522707</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.8108575495548802</c:v>
+                  <c:v>5.3725522229882348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6084,79 +6066,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.541685845174559E-3</c:v>
+                  <c:v>1.8252510141820721E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.760214119478043E-2</c:v>
+                  <c:v>7.1852666775507057E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8393495361578767E-2</c:v>
+                  <c:v>1.5912623074223697E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6200745015463802E-2</c:v>
+                  <c:v>2.7847826312067614E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10037501494081624</c:v>
+                  <c:v>4.2838936917594772E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14032744208243342</c:v>
+                  <c:v>6.0741212021379498E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18552362523429844</c:v>
+                  <c:v>8.1416764491336391E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23547858805688793</c:v>
+                  <c:v>0.10473423821113181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28975220794709045</c:v>
+                  <c:v>0.13056849873901455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.347945067675689</c:v>
+                  <c:v>0.15880033861857101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40969469069212905</c:v>
+                  <c:v>0.18931619664742083</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47467212461256292</c:v>
+                  <c:v>0.22200789044273228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54257884068892581</c:v>
+                  <c:v>0.25677236167375583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6131439200350921</c:v>
+                  <c:v>0.2935114333614055</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68612150008896</c:v>
+                  <c:v>0.33213157867332876</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7612884572421792</c:v>
+                  <c:v>0.37254370066998543</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83844230379520579</c:v>
+                  <c:v>0.41466292248304004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91739927941550858</c:v>
+                  <c:v>0.45840838743194134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9979926191100128</c:v>
+                  <c:v>0.50370306860796998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0800709813866116</c:v>
+                  <c:v>0.55047358747732322</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1634970217894294</c:v>
+                  <c:v>0.59865004107605713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.248146098362731</c:v>
+                  <c:v>0.64816583738992972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3339050968418742</c:v>
+                  <c:v>0.69895753853146059</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4206713644981663</c:v>
+                  <c:v>0.75096471134491405</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5083517425886188</c:v>
+                  <c:v>0.80412978508735455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29204,15 +29186,15 @@
         <v>1.29</v>
       </c>
       <c r="C158" s="3">
-        <f t="shared" ref="C158:C221" si="6">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B158/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
+        <f t="shared" ref="C158:C179" si="6">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B158/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
         <v>0.56688332590889856</v>
       </c>
       <c r="D158" s="3">
-        <f t="shared" ref="D158:D221" si="7">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B158/$B$21/$B$25) + (4*$B$23*B158)) / (8*$B$23*$B$23)</f>
+        <f t="shared" ref="D158:D179" si="7">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B158/$B$21/$B$25) + (4*$B$23*B158)) / (8*$B$23*$B$23)</f>
         <v>-0.73127949042247931</v>
       </c>
       <c r="E158" s="3">
-        <f t="shared" ref="E158:E221" si="8">-(D158-$D$29)</f>
+        <f t="shared" ref="E158:E179" si="8">-(D158-$D$29)</f>
         <v>0.73055498156128429</v>
       </c>
       <c r="T158" s="20"/>
@@ -31197,8 +31179,8 @@
   </sheetPr>
   <dimension ref="A1:X332"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M342" sqref="M342"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31363,7 +31345,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -31376,7 +31358,7 @@
       </c>
       <c r="B14" s="15">
         <f>(B11*B12*B13)+B10</f>
-        <v>17.8</v>
+        <v>27.6</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -31420,7 +31402,7 @@
       </c>
       <c r="B22">
         <f>B14</f>
-        <v>17.8</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -31450,7 +31432,7 @@
       </c>
       <c r="B25">
         <f>B13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -31492,7 +31474,7 @@
       </c>
       <c r="D29" s="3">
         <f>($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B29/$B$21/$B$25) + (4*$B$23*B29)) / (8*$B$23*$B$23)</f>
-        <v>-0.99591143037606988</v>
+        <v>-1.5756019809419242</v>
       </c>
       <c r="E29" s="3">
         <f>-(D29-$D$29)</f>
@@ -31510,15 +31492,15 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ref="C30:C93" si="0">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B30/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
-        <v>0.89388138718947907</v>
+        <v>0.36212175541430547</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ref="D30:D93" si="1">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B30/$B$21/$B$25) + (4*$B$23*B30)) / (8*$B$23*$B$23)</f>
-        <v>-1.0004531162212444</v>
+        <v>-1.5774272319561062</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ref="E30:E93" si="2">-(D30-$D$29)</f>
-        <v>4.541685845174559E-3</v>
+        <v>1.8252510141820721E-3</v>
       </c>
       <c r="T30" s="20"/>
       <c r="U30" s="3"/>
@@ -31532,15 +31514,15 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>1.7050908647248431</v>
+        <v>0.70709163557397225</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="1"/>
-        <v>-1.0135135715708503</v>
+        <v>-1.5827872476194749</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="2"/>
-        <v>1.760214119478043E-2</v>
+        <v>7.1852666775507057E-3</v>
       </c>
       <c r="T31" s="21"/>
       <c r="U31" s="3"/>
@@ -31554,15 +31536,15 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>2.4412744634372601</v>
+        <v>1.0357220380230618</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="1"/>
-        <v>-1.0343049257376487</v>
+        <v>-1.5915146040161479</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>3.8393495361578767E-2</v>
+        <v>1.5912623074223697E-2</v>
       </c>
       <c r="T32" s="21"/>
       <c r="U32" s="3"/>
@@ -31576,15 +31558,15 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>3.1093710599659161</v>
+        <v>1.3487868811446244</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="1"/>
-        <v>-1.0621121753915337</v>
+        <v>-1.6034498072539918</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="2"/>
-        <v>6.6200745015463802E-2</v>
+        <v>2.7847826312067614E-2</v>
       </c>
       <c r="T33" s="20"/>
       <c r="U33" s="3"/>
@@ -31597,15 +31579,15 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
-        <v>3.7156777789336353</v>
+        <v>1.6470234267238553</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="1"/>
-        <v>-1.0962864453168861</v>
+        <v>-1.6184409178595189</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="2"/>
-        <v>0.10037501494081624</v>
+        <v>4.2838936917594772E-2</v>
       </c>
       <c r="T34" s="21"/>
       <c r="U34" s="3"/>
@@ -31618,15 +31600,15 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" si="0"/>
-        <v>4.2659093463079376</v>
+        <v>1.9311340161856538</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="1"/>
-        <v>-1.1362388724585033</v>
+        <v>-1.6363431929633037</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
-        <v>0.14032744208243342</v>
+        <v>6.0741212021379498E-2</v>
       </c>
       <c r="T35" s="21"/>
       <c r="U35" s="3"/>
@@ -31639,15 +31621,15 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" si="0"/>
-        <v>4.7652519533808828</v>
+        <v>2.2017877245954001</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="1"/>
-        <v>-1.1814350556103683</v>
+        <v>-1.6570187454332606</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="2"/>
-        <v>0.18552362523429844</v>
+        <v>8.1416764491336391E-2</v>
       </c>
       <c r="T36" s="20"/>
       <c r="U36" s="3"/>
@@ -31660,15 +31642,15 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" si="0"/>
-        <v>5.2184121390610017</v>
+        <v>2.4596219363180758</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2313900184329578</v>
+        <v>-1.680336219153056</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="2"/>
-        <v>0.23547858805688793</v>
+        <v>0.10473423821113181</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="3"/>
@@ -31681,15 +31663,15 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" si="0"/>
-        <v>5.629661151215986</v>
+        <v>2.705243846046395</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2856636383231603</v>
+        <v>-1.7061704796809387</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="2"/>
-        <v>0.28975220794709045</v>
+        <v>0.13056849873901455</v>
       </c>
       <c r="T38" s="21"/>
       <c r="U38" s="3"/>
@@ -31702,15 +31684,15 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
-        <v>6.0028752051925496</v>
+        <v>2.9392318887328219</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="1"/>
-        <v>-1.3438564980517589</v>
+        <v>-1.7344023195604952</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="2"/>
-        <v>0.347945067675689</v>
+        <v>0.15880033861857101</v>
       </c>
       <c r="T39" s="20"/>
       <c r="U39" s="3"/>
@@ -31723,15 +31705,15 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" si="0"/>
-        <v>6.3415720189690363</v>
+        <v>3.1621371017929434</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="1"/>
-        <v>-1.4056061210681989</v>
+        <v>-1.764918177589345</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="2"/>
-        <v>0.40969469069212905</v>
+        <v>0.18931619664742083</v>
       </c>
       <c r="T40" s="21"/>
       <c r="U40" s="3"/>
@@ -31744,15 +31726,15 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" si="0"/>
-        <v>6.6489439693017216</v>
+        <v>3.3744844227881661</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="1"/>
-        <v>-1.4705835549886328</v>
+        <v>-1.7976098713846564</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="2"/>
-        <v>0.47467212461256292</v>
+        <v>0.22200789044273228</v>
       </c>
       <c r="T41" s="21"/>
       <c r="U41" s="3"/>
@@ -31765,15 +31747,15 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" si="0"/>
-        <v>6.927888181377087</v>
+        <v>3.5767739256437387</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="1"/>
-        <v>-1.5384902710649957</v>
+        <v>-1.83237434261568</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="2"/>
-        <v>0.54257884068892581</v>
+        <v>0.25677236167375583</v>
       </c>
       <c r="T42" s="20"/>
       <c r="U42" s="3"/>
@@ -31786,15 +31768,15 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" si="0"/>
-        <v>7.1810338355791981</v>
+        <v>3.7694819983134007</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="1"/>
-        <v>-1.609055350411162</v>
+        <v>-1.8691134143033297</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="2"/>
-        <v>0.6131439200350921</v>
+        <v>0.2935114333614055</v>
       </c>
       <c r="T43" s="21"/>
       <c r="U43" s="3"/>
@@ -31807,15 +31789,15 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
-        <v>7.4107669487513057</v>
+        <v>3.9530624646639918</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="1"/>
-        <v>-1.6820329304650299</v>
+        <v>-1.9077335596152529</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="2"/>
-        <v>0.68612150008896</v>
+        <v>0.33213157867332876</v>
       </c>
       <c r="T44" s="21"/>
       <c r="U44" s="3"/>
@@ -31828,15 +31810,15 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" si="0"/>
-        <v>7.6192528635267252</v>
+        <v>4.1279476532220869</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="1"/>
-        <v>-1.7571998876182491</v>
+        <v>-1.9481456816119096</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="2"/>
-        <v>0.7612884572421792</v>
+        <v>0.37254370066998543</v>
       </c>
       <c r="T45" s="20"/>
       <c r="U45" s="3"/>
@@ -31849,15 +31831,15 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" si="0"/>
-        <v>7.8084566577014884</v>
+        <v>4.2945494152994907</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="1"/>
-        <v>-1.8343537341712757</v>
+        <v>-1.9902649034249642</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="2"/>
-        <v>0.83844230379520579</v>
+        <v>0.41466292248304004</v>
       </c>
       <c r="T46" s="21"/>
       <c r="U46" s="3"/>
@@ -31870,15 +31852,15 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" si="0"/>
-        <v>7.9801616660167403</v>
+        <v>4.4532600948953007</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="1"/>
-        <v>-1.9133107097915785</v>
+        <v>-2.0340103683738655</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="2"/>
-        <v>0.91739927941550858</v>
+        <v>0.45840838743194134</v>
       </c>
       <c r="T47" s="21"/>
       <c r="U47" s="3"/>
@@ -31891,15 +31873,15 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" si="0"/>
-        <v>8.1359862889273593</v>
+        <v>4.6044534526585874</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="1"/>
-        <v>-1.9939040494860827</v>
+        <v>-2.0793050495498941</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="2"/>
-        <v>0.9979926191100128</v>
+        <v>0.50370306860796998</v>
       </c>
       <c r="T48" s="20"/>
       <c r="U48" s="3"/>
@@ -31912,15 +31894,15 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" si="0"/>
-        <v>8.2773992467873629</v>
+        <v>4.7484855460876751</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="1"/>
-        <v>-2.0759824117626815</v>
+        <v>-2.1260755684192474</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="2"/>
-        <v>1.0800709813866116</v>
+        <v>0.55047358747732322</v>
       </c>
       <c r="T49" s="21"/>
       <c r="U49" s="3"/>
@@ -31933,15 +31915,15 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" si="0"/>
-        <v>8.4057334232299787</v>
+        <v>4.8856955680388037</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="1"/>
-        <v>-2.1594084521654993</v>
+        <v>-2.1742520220179813</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="2"/>
-        <v>1.1634970217894294</v>
+        <v>0.59865004107605713</v>
       </c>
       <c r="T50" s="21"/>
       <c r="U50" s="3"/>
@@ -31954,15 +31936,15 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" si="0"/>
-        <v>8.5221984282227243</v>
+        <v>5.0164066455188951</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="1"/>
-        <v>-2.2440575287388009</v>
+        <v>-2.2237678183318539</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="2"/>
-        <v>1.248146098362731</v>
+        <v>0.64816583738992972</v>
       </c>
       <c r="T51" s="20"/>
       <c r="U51" s="3"/>
@@ -31975,15 +31957,15 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" si="0"/>
-        <v>8.6278919992102274</v>
+        <v>5.1409266006435423</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="1"/>
-        <v>-2.3298165272179441</v>
+        <v>-2.2745595194733847</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="2"/>
-        <v>1.3339050968418742</v>
+        <v>0.69895753853146059</v>
       </c>
       <c r="T52" s="21"/>
       <c r="U52" s="3"/>
@@ -31996,15 +31978,15 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" si="0"/>
-        <v>8.7238103478058946</v>
+        <v>5.2595486755522707</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="1"/>
-        <v>-2.4165827948742362</v>
+        <v>-2.3265666922868382</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="2"/>
-        <v>1.4206713644981663</v>
+        <v>0.75096471134491405</v>
       </c>
       <c r="T53" s="21"/>
       <c r="U53" s="3"/>
@@ -32017,15 +31999,15 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" si="0"/>
-        <v>8.8108575495548802</v>
+        <v>5.3725522229882348</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="1"/>
-        <v>-2.5042631729646887</v>
+        <v>-2.3797317660292787</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="2"/>
-        <v>1.5083517425886188</v>
+        <v>0.80412978508735455</v>
       </c>
       <c r="T54" s="20"/>
       <c r="U54" s="3"/>
@@ -32038,15 +32020,15 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" si="0"/>
-        <v>8.8898540652712796</v>
+        <v>5.4802033641686414</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="1"/>
-        <v>-2.5927731186670564</v>
+        <v>-2.4339998967925602</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>1.5968616882909865</v>
+        <v>0.85839791585063607</v>
       </c>
       <c r="T55" s="21"/>
       <c r="U55" s="3"/>
@@ -32059,15 +32041,15 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" si="0"/>
-        <v>8.9615444742671571</v>
+        <v>5.5827556154951807</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="1"/>
-        <v>-2.682035908223972</v>
+        <v>-2.4893188383469638</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="2"/>
-        <v>1.6861244778479021</v>
+        <v>0.91371685740503961</v>
       </c>
       <c r="T56" s="20"/>
       <c r="U56" s="3"/>
@@ -32080,15 +32062,15 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" si="0"/>
-        <v>9.0266044923627256</v>
+        <v>5.6804504855803666</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="1"/>
-        <v>-2.7719819137854578</v>
+        <v>-2.545638819102308</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="2"/>
-        <v>1.7760704834093879</v>
+        <v>0.97003683816038389</v>
       </c>
       <c r="T57" s="21"/>
       <c r="U57" s="3"/>
@@ -32101,15 +32083,15 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" si="0"/>
-        <v>9.0856473408257532</v>
+        <v>5.7735180439957459</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="1"/>
-        <v>-2.862547947133685</v>
+        <v>-2.6029124248968016</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="2"/>
-        <v>1.8666365167576151</v>
+        <v>1.0273104439548775</v>
       </c>
       <c r="T58" s="21"/>
       <c r="U58" s="3"/>
@@ -32122,15 +32104,15 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" si="0"/>
-        <v>9.1392295262703858</v>
+        <v>5.8621774630813901</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="1"/>
-        <v>-2.9536766641043162</v>
+        <v>-2.6610944873375875</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="2"/>
-        <v>1.9577652337282463</v>
+        <v>1.0854925063956633</v>
       </c>
       <c r="T59" s="20"/>
       <c r="U59" s="3"/>
@@ -32143,15 +32125,15 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" si="0"/>
-        <v>9.1878560859937171</v>
+        <v>5.9466375340926119</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="1"/>
-        <v>-3.0453160240907744</v>
+        <v>-2.7201419774300279</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="2"/>
-        <v>2.0494045937147045</v>
+        <v>1.1445399964881038</v>
       </c>
       <c r="T60" s="21"/>
       <c r="U60" s="3"/>
@@ -32164,15 +32146,15 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" si="0"/>
-        <v>9.2319853481898253</v>
+        <v>6.0270971588994193</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="1"/>
-        <v>-3.1374187995370608</v>
+        <v>-2.7800139042452403</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="2"/>
-        <v>2.1415073691609909</v>
+        <v>1.2044119233033161</v>
       </c>
       <c r="T61" s="21"/>
       <c r="U61" s="3"/>
@@ -32185,15 +32167,15 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" si="0"/>
-        <v>9.2720332519085531</v>
+        <v>6.103745818396666</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="1"/>
-        <v>-3.2299421307958265</v>
+        <v>-2.8406712183872322</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="2"/>
-        <v>2.2340307004197566</v>
+        <v>1.2650692374453081</v>
       </c>
       <c r="T62" s="20"/>
       <c r="U62" s="3"/>
@@ -32206,15 +32188,15 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" si="0"/>
-        <v>9.3083772674766578</v>
+        <v>6.1767640187279662</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="1"/>
-        <v>-3.3228471221560381</v>
+        <v>-2.9020767200323165</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="2"/>
-        <v>2.3269356917799682</v>
+        <v>1.3264747390903924</v>
       </c>
       <c r="T63" s="21"/>
       <c r="U63" s="3"/>
@@ -32227,15 +32209,15 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" si="0"/>
-        <v>9.3413599543331767</v>
+        <v>6.2463237163742571</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="1"/>
-        <v>-3.41609847523261</v>
+        <v>-2.9641949713242228</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="2"/>
-        <v>2.4201870448565401</v>
+        <v>1.3885929903822987</v>
       </c>
       <c r="T64" s="21"/>
       <c r="U64" s="3"/>
@@ -32248,15 +32230,15 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" si="0"/>
-        <v>9.3712921898132269</v>
+        <v>6.3125887231080542</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="1"/>
-        <v>-3.5096641562625268</v>
+        <v>-3.0269922129186222</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="2"/>
-        <v>2.5137527258864569</v>
+        <v>1.451390231976698</v>
       </c>
       <c r="T65" s="20"/>
       <c r="U65" s="3"/>
@@ -32269,15 +32251,15 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" si="0"/>
-        <v>9.3984560993130994</v>
+        <v>6.3757150917670806</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="1"/>
-        <v>-3.6035150941715561</v>
+        <v>-3.0904362844805076</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="2"/>
-        <v>2.6076036637954862</v>
+        <v>1.5148343035385834</v>
       </c>
       <c r="T66" s="21"/>
       <c r="U66" s="3"/>
@@ -32290,15 +32272,15 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" si="0"/>
-        <v>9.4231077154548046</v>
+        <v>6.4358514837557497</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" si="1"/>
-        <v>-3.6976249065657072</v>
+        <v>-3.1544965489472143</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="2"/>
-        <v>2.7017134761896373</v>
+        <v>1.5788945680052902</v>
       </c>
       <c r="T67" s="21"/>
       <c r="U67" s="3"/>
@@ -32311,15 +32293,15 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" si="0"/>
-        <v>9.4454793913139383</v>
+        <v>6.4931395191399552</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" si="1"/>
-        <v>-3.7919696510647589</v>
+        <v>-3.2191438203787133</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="2"/>
-        <v>2.796058220688689</v>
+        <v>1.6435418394367891</v>
       </c>
       <c r="T68" s="20"/>
       <c r="U68" s="3"/>
@@ -32332,15 +32314,15 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" si="0"/>
-        <v>9.4657819904566942</v>
+        <v>6.5477141101596565</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" si="1"/>
-        <v>-3.886527599634062</v>
+        <v>-3.2843502952252788</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="2"/>
-        <v>2.8906161692579921</v>
+        <v>1.7087483142833546</v>
       </c>
       <c r="T69" s="21"/>
       <c r="U69" s="3"/>
@@ -32353,15 +32335,15 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" si="0"/>
-        <v>9.4842068744281427</v>
+        <v>6.5997037789446473</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" si="1"/>
-        <v>-3.9812790337876005</v>
+        <v>-3.3500894868506497</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="2"/>
-        <v>2.9853676034115306</v>
+        <v>1.7744875059087255</v>
       </c>
       <c r="T70" s="21"/>
       <c r="U70" s="3"/>
@@ -32374,15 +32356,15 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" si="0"/>
-        <v>9.5009277064247932</v>
+        <v>6.6492309601817414</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" si="1"/>
-        <v>-4.0762060587319855</v>
+        <v>-3.4163361631565099</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="2"/>
-        <v>3.0802946283559156</v>
+        <v>1.8407341822145857</v>
       </c>
       <c r="T71" s="20"/>
       <c r="U71" s="3"/>
@@ -32395,15 +32377,15 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" si="0"/>
-        <v>9.5161020881518912</v>
+        <v>6.6964122894461457</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" si="1"/>
-        <v>-4.171292434699609</v>
+        <v>-3.483066287161364</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="2"/>
-        <v>3.1753810043235391</v>
+        <v>1.9074643062194399</v>
       </c>
       <c r="T72" s="21"/>
       <c r="U72" s="3"/>
@@ -32416,15 +32398,15 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" si="0"/>
-        <v>9.5298730452936038</v>
+        <v>6.7413588778760332</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" si="1"/>
-        <v>-4.2665234238811971</v>
+        <v>-3.5502569603939067</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" si="2"/>
-        <v>3.2706119935051272</v>
+        <v>1.9746549794519825</v>
       </c>
       <c r="T73" s="21"/>
       <c r="U73" s="3"/>
@@ -32437,15 +32419,15 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" si="0"/>
-        <v>9.5423703755973648</v>
+        <v>6.7841765738371738</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" si="1"/>
-        <v>-4.3618856515150295</v>
+        <v>-3.6178863689675551</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" si="2"/>
-        <v>3.3659742211389596</v>
+        <v>2.0422843880256307</v>
       </c>
       <c r="T74" s="20"/>
       <c r="U74" s="3"/>
@@ -32458,15 +32440,15 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" si="0"/>
-        <v>9.5537118722786811</v>
+        <v>6.8249662121938304</v>
       </c>
       <c r="D75" s="3">
         <f t="shared" si="1"/>
-        <v>-4.4573669798235214</v>
+        <v>-3.6859337322091577</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="2"/>
-        <v>3.4614555494474515</v>
+        <v>2.1103317512672337</v>
       </c>
       <c r="T75" s="21"/>
       <c r="U75" s="3"/>
@@ -32479,15 +32461,15 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" si="0"/>
-        <v>9.5640044342775923</v>
+        <v>6.8638238517729633</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" si="1"/>
-        <v>-4.5529563936089534</v>
+        <v>-3.7543792537209</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="2"/>
-        <v>3.5570449632328835</v>
+        <v>2.1787772727789756</v>
       </c>
       <c r="T76" s="21"/>
       <c r="U76" s="3"/>
@@ -32500,15 +32482,15 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" si="0"/>
-        <v>9.5733450738314456</v>
+        <v>6.9008410015809467</v>
       </c>
       <c r="D77" s="3">
         <f t="shared" si="1"/>
-        <v>-4.6486438964300625</v>
+        <v>-3.8232040747601688</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="2"/>
-        <v>3.6527324660539926</v>
+        <v>2.2476020938182444</v>
       </c>
       <c r="T77" s="20"/>
       <c r="U77" s="3"/>
@@ -32521,15 +32503,15 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" si="0"/>
-        <v>9.5818218308608696</v>
+        <v>6.9361048363055469</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" si="1"/>
-        <v>-4.7444204163808754</v>
+        <v>-3.8923902298275599</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="2"/>
-        <v>3.7485089860048055</v>
+        <v>2.3167882488856355</v>
       </c>
       <c r="T78" s="21"/>
       <c r="U78" s="3"/>
@@ -32542,15 +32524,15 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" si="0"/>
-        <v>9.5895146027874141</v>
+        <v>6.9696984016106676</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8402777205837317</v>
+        <v>-3.9619206043584754</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="2"/>
-        <v>3.8443662902076619</v>
+        <v>2.3863186234165514</v>
       </c>
       <c r="T79" s="21"/>
       <c r="U79" s="3"/>
@@ -32563,15 +32545,15 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" si="0"/>
-        <v>9.5964958976043384</v>
+        <v>7.0017008097073168</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" si="1"/>
-        <v>-4.9362083375905357</v>
+        <v>-4.0317788944186441</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" si="2"/>
-        <v>3.9402969072144658</v>
+        <v>2.4561769134767202</v>
       </c>
       <c r="T80" s="20"/>
       <c r="U80" s="3"/>
@@ -32584,15 +32566,15 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" si="0"/>
-        <v>9.6028315172985401</v>
+        <v>7.0321874256613652</v>
       </c>
       <c r="D81" s="3">
         <f t="shared" si="1"/>
-        <v>-5.0322054869608506</v>
+        <v>-4.1019495683086644</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" si="2"/>
-        <v>4.0362940565847811</v>
+        <v>2.5263475873667405</v>
       </c>
       <c r="T81" s="21"/>
       <c r="U81" s="3"/>
@@ -32605,15 +32587,15 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" si="0"/>
-        <v>9.6085811780652293</v>
+        <v>7.0612300448768526</v>
       </c>
       <c r="D82" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1282630153530535</v>
+        <v>-4.1724178299871477</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" si="2"/>
-        <v>4.1323515849769841</v>
+        <v>2.5968158490452238</v>
       </c>
       <c r="T82" s="20"/>
       <c r="U82" s="3"/>
@@ -32626,15 +32608,15 @@
       </c>
       <c r="C83" s="3">
         <f t="shared" si="0"/>
-        <v>9.6137990731611485</v>
+        <v>7.0888970621728093</v>
       </c>
       <c r="D83" s="3">
         <f t="shared" si="1"/>
-        <v>-5.2243753385262002</v>
+        <v>-4.2431695842263153</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" si="2"/>
-        <v>4.2284639081501307</v>
+        <v>2.6675676032843914</v>
       </c>
       <c r="T83" s="21"/>
       <c r="U83" s="3"/>
@@ -32647,15 +32629,15 @@
       </c>
       <c r="C84" s="3">
         <f t="shared" si="0"/>
-        <v>9.6185343837015154</v>
+        <v>7.1152536328517559</v>
       </c>
       <c r="D84" s="3">
         <f t="shared" si="1"/>
-        <v>-5.3205373887059242</v>
+        <v>-4.3141914034180147</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="2"/>
-        <v>4.3246259583298539</v>
+        <v>2.7385894224760907</v>
       </c>
       <c r="T84" s="21"/>
       <c r="U84" s="3"/>
@@ -32668,15 +32650,15 @@
       </c>
       <c r="C85" s="3">
         <f t="shared" si="0"/>
-        <v>9.6228317422151513</v>
+        <v>7.1403618261392143</v>
       </c>
       <c r="D85" s="3">
         <f t="shared" si="1"/>
-        <v>-5.4167445668182852</v>
+        <v>-4.3854704959519442</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="2"/>
-        <v>4.4208331364422158</v>
+        <v>2.8098685150100202</v>
       </c>
       <c r="T85" s="20"/>
       <c r="U85" s="3"/>
@@ -32689,15 +32671,15 @@
       </c>
       <c r="C86" s="3">
         <f t="shared" si="0"/>
-        <v>9.6267316533270595</v>
+        <v>7.1642807713555552</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5129926991413241</v>
+        <v>-4.4569946760916581</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" si="2"/>
-        <v>4.5170812687652546</v>
+        <v>2.8813926951497342</v>
       </c>
       <c r="T86" s="21"/>
       <c r="U86" s="3"/>
@@ -32710,15 +32692,15 @@
       </c>
       <c r="C87" s="3">
         <f t="shared" si="0"/>
-        <v>9.6302708755335669</v>
+        <v>7.1870667971644338</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" si="1"/>
-        <v>-5.6092779979657887</v>
+        <v>-4.5287523352773906</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" si="2"/>
-        <v>4.6133665675897184</v>
+        <v>2.9531503543354667</v>
       </c>
       <c r="T87" s="21"/>
       <c r="U87" s="3"/>
@@ -32731,15 +32713,15 @@
       </c>
       <c r="C88" s="3">
         <f t="shared" si="0"/>
-        <v>9.6334827676684398</v>
+        <v>7.2087735642257247</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" si="1"/>
-        <v>-5.7055970258941775</v>
+        <v>-4.600732414788113</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" si="2"/>
-        <v>4.7096855955181081</v>
+        <v>3.0251304338461891</v>
       </c>
       <c r="T88" s="20"/>
       <c r="U88" s="3"/>
@@ -32752,15 +32734,15 @@
       </c>
       <c r="C89" s="3">
         <f t="shared" si="0"/>
-        <v>9.6363976033255749</v>
+        <v>7.2294521915653602</v>
       </c>
       <c r="D89" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8019466634416501</v>
+        <v>-4.6729243796984523</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" si="2"/>
-        <v>4.8060352330655807</v>
+        <v>3.0973223987565284</v>
       </c>
       <c r="T89" s="21"/>
       <c r="U89" s="3"/>
@@ -32773,15 +32755,15 @@
       </c>
       <c r="C90" s="3">
         <f t="shared" si="0"/>
-        <v>9.6390428562018666</v>
+        <v>7.2491513769596736</v>
       </c>
       <c r="D90" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8983240796334302</v>
+        <v>-4.7453181940691493</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" si="2"/>
-        <v>4.9024126492573608</v>
+        <v>3.1697162131272254</v>
       </c>
       <c r="T90" s="21"/>
       <c r="U90" s="3"/>
@@ -32794,15 +32776,15 @@
       </c>
       <c r="C91" s="3">
         <f t="shared" si="0"/>
-        <v>9.6414434590497144</v>
+        <v>7.2679175116177372</v>
       </c>
       <c r="D91" s="3">
         <f t="shared" si="1"/>
-        <v>-5.994726705321523</v>
+        <v>-4.8179042973126025</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="2"/>
-        <v>4.9988152749454535</v>
+        <v>3.2423023163706786</v>
       </c>
       <c r="T91" s="20"/>
       <c r="U91" s="3"/>
@@ -32815,15 +32797,15 @@
       </c>
       <c r="C92" s="3">
         <f t="shared" si="0"/>
-        <v>9.6436220386799452</v>
+        <v>7.2857947894317849</v>
       </c>
       <c r="D92" s="3">
         <f t="shared" si="1"/>
-        <v>-6.0911522089692918</v>
+        <v>-4.8906735816778752</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" si="2"/>
-        <v>5.0952407785932223</v>
+        <v>3.3150716007359513</v>
       </c>
       <c r="T92" s="21"/>
       <c r="U92" s="3"/>
@@ -32836,15 +32818,15 @@
       </c>
       <c r="C93" s="3">
         <f t="shared" si="0"/>
-        <v>9.645599129230142</v>
+        <v>7.3028253110529935</v>
       </c>
       <c r="D93" s="3">
         <f t="shared" si="1"/>
-        <v>-6.1875984746756325</v>
+        <v>-4.9636173708021012</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="2"/>
-        <v>5.1916870442995631</v>
+        <v>3.3880153898601773</v>
       </c>
       <c r="T93" s="21"/>
       <c r="U93" s="3"/>
@@ -32857,15 +32839,15 @@
       </c>
       <c r="C94" s="3">
         <f t="shared" ref="C94:C157" si="3">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B94/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
-        <v>9.6473933657085489</v>
+        <v>7.3190491830377162</v>
       </c>
       <c r="D94" s="3">
         <f t="shared" ref="D94:D157" si="4">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B94/$B$21/$B$25) + (4*$B$23*B94)) / (8*$B$23*$B$23)</f>
-        <v>-6.2840635822316058</v>
+        <v>-5.0367273992778259</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" ref="E94:E157" si="5">-(D94-$D$29)</f>
-        <v>5.2881521518555363</v>
+        <v>3.4611254183359019</v>
       </c>
       <c r="T94" s="20"/>
       <c r="U94" s="3"/>
@@ -32878,15 +32860,15 @@
       </c>
       <c r="C95" s="3">
         <f t="shared" si="3"/>
-        <v>9.6490216596377909</v>
+        <v>7.3345046122976676</v>
       </c>
       <c r="D95" s="3">
         <f t="shared" si="4"/>
-        <v>-6.3805457890215651</v>
+        <v>-5.1099957931881237</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="5"/>
-        <v>5.3846343586454957</v>
+        <v>3.5343938122461998</v>
       </c>
       <c r="T95" s="21"/>
       <c r="U95" s="3"/>
@@ -32899,15 +32881,15 @@
       </c>
       <c r="C96" s="3">
         <f t="shared" si="3"/>
-        <v>9.6504993584539243</v>
+        <v>7.3492279960764799</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" si="4"/>
-        <v>-6.4770435135981881</v>
+        <v>-5.1834150515636717</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" si="5"/>
-        <v>5.4811320832221178</v>
+        <v>3.6078130706217477</v>
       </c>
       <c r="T96" s="21"/>
       <c r="U96" s="3"/>
@@ -32920,15 +32902,15 @@
       </c>
       <c r="C97" s="3">
         <f t="shared" si="3"/>
-        <v>9.6518403901632439</v>
+        <v>7.3632540076645174</v>
       </c>
       <c r="D97" s="3">
         <f t="shared" si="4"/>
-        <v>-6.5735553207765891</v>
+        <v>-5.2569780287181107</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" si="5"/>
-        <v>5.5776438904005197</v>
+        <v>3.6813760477761868</v>
       </c>
       <c r="T97" s="20"/>
       <c r="U97" s="3"/>
@@ -32941,15 +32923,15 @@
       </c>
       <c r="C98" s="3">
         <f t="shared" si="3"/>
-        <v>9.6530573946202853</v>
+        <v>7.3766156780538248</v>
       </c>
       <c r="D98" s="3">
         <f t="shared" si="4"/>
-        <v>-6.6700799081070237</v>
+        <v>-5.3306779174200853</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="5"/>
-        <v>5.6741684777309533</v>
+        <v>3.7550759364781614</v>
       </c>
       <c r="T98" s="21"/>
       <c r="U98" s="3"/>
@@ -32962,15 +32944,15 @@
       </c>
       <c r="C99" s="3">
         <f t="shared" si="3"/>
-        <v>9.6541618426644025</v>
+        <v>7.3893444737254876</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" si="4"/>
-        <v>-6.7666160935986959</v>
+        <v>-5.4045082328623488</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="5"/>
-        <v>5.7707046632226255</v>
+        <v>3.8289062519204249</v>
       </c>
       <c r="T99" s="21"/>
       <c r="U99" s="3"/>
@@ -32983,15 +32965,15 @@
       </c>
       <c r="C100" s="3">
         <f t="shared" si="3"/>
-        <v>9.6551641442378244</v>
+        <v>7.4014703707525973</v>
       </c>
       <c r="D100" s="3">
         <f t="shared" si="4"/>
-        <v>-6.8631628045789324</v>
+        <v>-5.4784627973901596</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" si="5"/>
-        <v>5.867251374202862</v>
+        <v>3.9028608164482357</v>
       </c>
       <c r="T100" s="20"/>
       <c r="U100" s="3"/>
@@ -33004,15 +32986,15 @@
       </c>
       <c r="C101" s="3">
         <f t="shared" si="3"/>
-        <v>9.6560737465042568</v>
+        <v>7.4130219253933411</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" si="4"/>
-        <v>-6.9597190675827356</v>
+        <v>-5.5525357259530237</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" si="5"/>
-        <v>5.9638076372066653</v>
+        <v>3.9769337450110998</v>
       </c>
       <c r="T101" s="21"/>
       <c r="U101" s="3"/>
@@ -33025,15 +33007,15 @@
       </c>
       <c r="C102" s="3">
         <f t="shared" si="3"/>
-        <v>9.6568992228928376</v>
+        <v>7.4240263413404479</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="4"/>
-        <v>-7.0562839991774293</v>
+        <v>-5.6267214122455078</v>
       </c>
       <c r="E102" s="3">
         <f t="shared" si="5"/>
-        <v>6.060372568801359</v>
+        <v>4.0511194313035839</v>
       </c>
       <c r="T102" s="21"/>
       <c r="U102" s="3"/>
@@ -33046,15 +33028,15 @@
       </c>
       <c r="C103" s="3">
         <f t="shared" si="3"/>
-        <v>9.6576483539067457</v>
+        <v>7.4345095337853682</v>
       </c>
       <c r="D103" s="3">
         <f t="shared" si="4"/>
-        <v>-7.1528567976358755</v>
+        <v>-5.7010145155045047</v>
       </c>
       <c r="E103" s="3">
         <f t="shared" si="5"/>
-        <v>6.1569453672598051</v>
+        <v>4.1254125345625807</v>
       </c>
       <c r="T103" s="20"/>
       <c r="U103" s="3"/>
@@ -33067,15 +33049,15 @@
       </c>
       <c r="C104" s="3">
         <f t="shared" si="3"/>
-        <v>9.6583282004580973</v>
+        <v>7.4444961904480618</v>
       </c>
       <c r="D104" s="3">
         <f t="shared" si="4"/>
-        <v>-7.2494367353798328</v>
+        <v>-5.7754099479318306</v>
       </c>
       <c r="E104" s="3">
         <f t="shared" si="5"/>
-        <v>6.2535253050037625</v>
+        <v>4.1998079669899067</v>
       </c>
       <c r="T104" s="21"/>
       <c r="U104" s="3"/>
@@ -33088,15 +33070,15 @@
       </c>
       <c r="C105" s="3">
         <f t="shared" si="3"/>
-        <v>9.658945170420365</v>
+        <v>7.4540098297161137</v>
       </c>
       <c r="D105" s="3">
         <f t="shared" si="4"/>
-        <v>-7.3460231521221822</v>
+        <v>-5.849902862712554</v>
       </c>
       <c r="E105" s="3">
         <f t="shared" si="5"/>
-        <v>6.3501117217461118</v>
+        <v>4.2743008817706301</v>
       </c>
       <c r="T105" s="21"/>
       <c r="U105" s="3"/>
@@ -33109,15 +33091,15 @@
       </c>
       <c r="C106" s="3">
         <f t="shared" si="3"/>
-        <v>9.6595050790255996</v>
+        <v>7.4630728560300872</v>
       </c>
       <c r="D106" s="3">
         <f t="shared" si="4"/>
-        <v>-7.4426154486434104</v>
+        <v>-5.9244886426008492</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="5"/>
-        <v>6.4467040182673401</v>
+        <v>4.3488866616589252</v>
       </c>
       <c r="T106" s="20"/>
       <c r="U106" s="3"/>
@@ -33130,15 +33112,15 @@
       </c>
       <c r="C107" s="3">
         <f t="shared" si="3"/>
-        <v>9.6600132036757245</v>
+        <v>7.4717066126455602</v>
       </c>
       <c r="D107" s="3">
         <f t="shared" si="4"/>
-        <v>-7.5392130811436822</v>
+        <v>-5.9991628890464552</v>
       </c>
       <c r="E107" s="3">
         <f t="shared" si="5"/>
-        <v>6.5433016507676118</v>
+        <v>4.4235609081045313</v>
       </c>
       <c r="T107" s="21"/>
       <c r="U107" s="3"/>
@@ -33151,15 +33133,15 @@
       </c>
       <c r="C108" s="3">
         <f t="shared" si="3"/>
-        <v>9.6604743336845367</v>
+        <v>7.4799314318960919</v>
       </c>
       <c r="D108" s="3">
         <f t="shared" si="4"/>
-        <v>-7.6358155561172811</v>
+        <v>-6.0739214118361851</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="5"/>
-        <v>6.6399041257412108</v>
+        <v>4.4983194308942611</v>
       </c>
       <c r="T108" s="20"/>
       <c r="U108" s="3"/>
@@ -33172,15 +33154,15 @@
       </c>
       <c r="C109" s="3">
         <f t="shared" si="3"/>
-        <v>9.6608928154192331</v>
+        <v>7.4877666830754759</v>
       </c>
       <c r="D109" s="3">
         <f t="shared" si="4"/>
-        <v>-7.7324224257010741</v>
+        <v>-6.1487602192260482</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="5"/>
-        <v>6.7365109953250037</v>
+        <v>4.5731582382841243</v>
       </c>
       <c r="T109" s="21"/>
       <c r="U109" s="3"/>
@@ -33193,15 +33175,15 @@
       </c>
       <c r="C110" s="3">
         <f t="shared" si="3"/>
-        <v>9.6612725932669736</v>
+        <v>7.4952308180520681</v>
       </c>
       <c r="D110" s="3">
         <f t="shared" si="4"/>
-        <v>-7.8290332834531977</v>
+        <v>-6.2236755085407651</v>
       </c>
       <c r="E110" s="3">
         <f t="shared" si="5"/>
-        <v>6.8331218530771274</v>
+        <v>4.6480735275988412</v>
       </c>
       <c r="T110" s="21"/>
       <c r="U110" s="3"/>
@@ -33214,15 +33196,15 @@
       </c>
       <c r="C111" s="3">
         <f t="shared" si="3"/>
-        <v>9.6616172468125772</v>
+        <v>7.5023414147225855</v>
       </c>
       <c r="D111" s="3">
         <f t="shared" si="4"/>
-        <v>-7.925647760522148</v>
+        <v>-6.2986636572185501</v>
       </c>
       <c r="E111" s="3">
         <f t="shared" si="5"/>
-        <v>6.9297363301460777</v>
+        <v>4.7230616762766262</v>
       </c>
       <c r="T111" s="20"/>
       <c r="U111" s="3"/>
@@ -33235,15 +33217,15 @@
       </c>
       <c r="C112" s="3">
         <f t="shared" si="3"/>
-        <v>9.661930024577801</v>
+        <v>7.5091152184077181</v>
       </c>
       <c r="D112" s="3">
         <f t="shared" si="4"/>
-        <v>-8.0222655221701924</v>
+        <v>-6.3737212142800344</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="5"/>
-        <v>7.0263540917941221</v>
+        <v>4.7981192333381104</v>
       </c>
       <c r="T112" s="21"/>
       <c r="U112" s="3"/>
@@ -33256,15 +33238,15 @@
       </c>
       <c r="C113" s="3">
         <f t="shared" si="3"/>
-        <v>9.6622138746401784</v>
+        <v>7.5155681812870441</v>
       </c>
       <c r="D113" s="3">
         <f t="shared" si="4"/>
-        <v>-8.1188862646182898</v>
+        <v>-6.4488448922012811</v>
       </c>
       <c r="E113" s="3">
         <f t="shared" si="5"/>
-        <v>7.1229748342422194</v>
+        <v>4.8732429112593572</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="3"/>
@@ -33277,15 +33259,15 @@
       </c>
       <c r="C114" s="3">
         <f t="shared" si="3"/>
-        <v>9.6624714724200409</v>
+        <v>7.5217154999661151</v>
       </c>
       <c r="D114" s="3">
         <f t="shared" si="4"/>
-        <v>-8.2155097121828504</v>
+        <v>-6.5240315591717284</v>
       </c>
       <c r="E114" s="3">
         <f t="shared" si="5"/>
-        <v>7.2195982818067801</v>
+        <v>4.9484295782298044</v>
       </c>
       <c r="T114" s="20"/>
       <c r="U114" s="3"/>
@@ -33298,15 +33280,15 @@
       </c>
       <c r="C115" s="3">
         <f t="shared" si="3"/>
-        <v>9.662705245897607</v>
+        <v>7.5275716512641662</v>
       </c>
       <c r="D115" s="3">
         <f t="shared" si="4"/>
-        <v>-8.3121356146772722</v>
+        <v>-6.5992782317188343</v>
       </c>
       <c r="E115" s="3">
         <f t="shared" si="5"/>
-        <v>7.3162241843012019</v>
+        <v>5.0236762507769104</v>
       </c>
       <c r="T115" s="21"/>
       <c r="U115" s="3"/>
@@ -33319,15 +33301,15 @@
       </c>
       <c r="C116" s="3">
         <f t="shared" si="3"/>
-        <v>9.6629173984978483</v>
+        <v>7.5331504263067606</v>
       </c>
       <c r="D116" s="3">
         <f t="shared" si="4"/>
-        <v>-8.4087637450538288</v>
+        <v>-6.6745820676820529</v>
       </c>
       <c r="E116" s="3">
         <f t="shared" si="5"/>
-        <v>7.4128523146777585</v>
+        <v>5.0989800867401289</v>
       </c>
       <c r="T116" s="21"/>
       <c r="U116" s="3"/>
@@ -33340,15 +33322,15 @@
       </c>
       <c r="C117" s="3">
         <f t="shared" si="3"/>
-        <v>9.663109929858793</v>
+        <v>7.538464963003622</v>
       </c>
       <c r="D117" s="3">
         <f t="shared" si="4"/>
-        <v>-8.5053938972636249</v>
+        <v>-6.7499403595196066</v>
       </c>
       <c r="E117" s="3">
         <f t="shared" si="5"/>
-        <v>7.5094824668875546</v>
+        <v>5.1743383785776826</v>
       </c>
       <c r="T117" s="20"/>
       <c r="U117" s="3"/>
@@ -33361,15 +33343,15 @@
       </c>
       <c r="C118" s="3">
         <f t="shared" si="3"/>
-        <v>9.6632846546790656</v>
+        <v>7.5435277769881708</v>
       </c>
       <c r="D118" s="3">
         <f t="shared" si="4"/>
-        <v>-8.6020258843144966</v>
+        <v>-6.8253505279322662</v>
       </c>
       <c r="E118" s="3">
         <f t="shared" si="5"/>
-        <v>7.6061144539384262</v>
+        <v>5.2497485469903422</v>
       </c>
       <c r="T118" s="21"/>
       <c r="U118" s="3"/>
@@ -33382,15 +33364,15 @@
       </c>
       <c r="C119" s="3">
         <f t="shared" si="3"/>
-        <v>9.6634432198222679</v>
+        <v>7.548350791091595</v>
       </c>
       <c r="D119" s="3">
         <f t="shared" si="4"/>
-        <v>-8.6986595365085204</v>
+        <v>-6.9008101157891621</v>
       </c>
       <c r="E119" s="3">
         <f t="shared" si="5"/>
-        <v>7.7027481061324501</v>
+        <v>5.3252081348472382</v>
       </c>
       <c r="T119" s="21"/>
       <c r="U119" s="3"/>
@@ -33403,15 +33385,15 @@
       </c>
       <c r="C120" s="3">
         <f t="shared" si="3"/>
-        <v>9.6635871198394465</v>
+        <v>7.5529453634209034</v>
       </c>
       <c r="D120" s="3">
         <f t="shared" si="4"/>
-        <v>-8.795294699842529</v>
+        <v>-6.9763167823412759</v>
       </c>
       <c r="E120" s="3">
         <f t="shared" si="5"/>
-        <v>7.7993832694664587</v>
+        <v>5.400714801399352</v>
       </c>
       <c r="T120" s="20"/>
       <c r="U120" s="3"/>
@@ -33424,15 +33406,15 @@
       </c>
       <c r="C121" s="3">
         <f t="shared" si="3"/>
-        <v>9.6637177110559378</v>
+        <v>7.5573223141070409</v>
       </c>
       <c r="D121" s="3">
         <f t="shared" si="4"/>
-        <v>-8.891931234556564</v>
+        <v>-7.0518682977090315</v>
       </c>
       <c r="E121" s="3">
         <f t="shared" si="5"/>
-        <v>7.8960198041804937</v>
+        <v>5.4762663167671075</v>
       </c>
       <c r="T121" s="21"/>
       <c r="U121" s="3"/>
@@ -33445,15 +33427,15 @@
       </c>
       <c r="C122" s="3">
         <f t="shared" si="3"/>
-        <v>9.663836224355375</v>
+        <v>7.5614919507861034</v>
       </c>
       <c r="D122" s="3">
         <f t="shared" si="4"/>
-        <v>-8.9885690138165604</v>
+        <v>-7.1274625376309588</v>
       </c>
       <c r="E122" s="3">
         <f t="shared" si="5"/>
-        <v>7.99265758344049</v>
+        <v>5.5518605566890349</v>
       </c>
       <c r="T122" s="21"/>
       <c r="U122" s="3"/>
@@ -33466,15 +33448,15 @@
       </c>
       <c r="C123" s="3">
         <f t="shared" si="3"/>
-        <v>9.6639437767813412</v>
+        <v>7.5654640928736168</v>
       </c>
       <c r="D123" s="3">
         <f t="shared" si="4"/>
-        <v>-9.085207922518892</v>
+        <v>-7.2030974784611104</v>
       </c>
       <c r="E123" s="3">
         <f t="shared" si="5"/>
-        <v>8.0892964921428216</v>
+        <v>5.6274954975191864</v>
       </c>
       <c r="T123" s="20"/>
       <c r="U123" s="3"/>
@@ -33487,15 +33469,15 @@
       </c>
       <c r="C124" s="3">
         <f t="shared" si="3"/>
-        <v>9.6640413820660314</v>
+        <v>7.5692480946890806</v>
       </c>
       <c r="D124" s="3">
         <f t="shared" si="4"/>
-        <v>-9.1818478562054544</v>
+        <v>-7.278771192403406</v>
       </c>
       <c r="E124" s="3">
         <f t="shared" si="5"/>
-        <v>8.1859364258293841</v>
+        <v>5.703169211461482</v>
       </c>
       <c r="T124" s="21"/>
       <c r="U124" s="3"/>
@@ -33508,15 +33490,15 @@
       </c>
       <c r="C125" s="3">
         <f t="shared" si="3"/>
-        <v>9.6641299601851536</v>
+        <v>7.5728528674852109</v>
       </c>
       <c r="D125" s="3">
         <f t="shared" si="4"/>
-        <v>-9.2784887200791033</v>
+        <v>-7.3544818429717118</v>
       </c>
       <c r="E125" s="3">
         <f t="shared" si="5"/>
-        <v>8.282577289703033</v>
+        <v>5.7788798620297879</v>
       </c>
       <c r="T125" s="21"/>
       <c r="U125" s="3"/>
@@ -33529,15 +33511,15 @@
       </c>
       <c r="C126" s="3">
         <f t="shared" si="3"/>
-        <v>9.6642103460291438</v>
+        <v>7.5762869004337725</v>
       </c>
       <c r="D126" s="3">
         <f t="shared" si="4"/>
-        <v>-9.3751304281101433</v>
+        <v>-7.4302276806649488</v>
       </c>
       <c r="E126" s="3">
         <f t="shared" si="5"/>
-        <v>8.379218997734073</v>
+        <v>5.8546256997230248</v>
       </c>
       <c r="T126" s="20"/>
       <c r="U126" s="3"/>
@@ -33550,15 +33532,15 @@
       </c>
       <c r="C127" s="3">
         <f t="shared" si="3"/>
-        <v>9.6642832972723838</v>
+        <v>7.5795582806174195</v>
       </c>
       <c r="D127" s="3">
         <f t="shared" si="4"/>
-        <v>-9.471772902225462</v>
+        <v>-7.506007038847053</v>
       </c>
       <c r="E127" s="3">
         <f t="shared" si="5"/>
-        <v>8.4758614718493916</v>
+        <v>5.9304050579051291</v>
       </c>
       <c r="T127" s="21"/>
       <c r="U127" s="3"/>
@@ -33571,15 +33553,15 @@
       </c>
       <c r="C128" s="3">
         <f t="shared" si="3"/>
-        <v>9.6643495015146499</v>
+        <v>7.5826747120746196</v>
       </c>
       <c r="D128" s="3">
         <f t="shared" si="4"/>
-        <v>-9.5684160715726456</v>
+        <v>-7.5818183298220756</v>
       </c>
       <c r="E128" s="3">
         <f t="shared" si="5"/>
-        <v>8.5725046411965753</v>
+        <v>6.0062163488801517</v>
       </c>
       <c r="T128" s="21"/>
       <c r="U128" s="3"/>
@@ -33592,15 +33574,15 @@
       </c>
       <c r="C129" s="3">
         <f t="shared" si="3"/>
-        <v>9.6644095827620582</v>
+        <v>7.5856435339425179</v>
       </c>
       <c r="D129" s="3">
         <f t="shared" si="4"/>
-        <v>-9.6650598718521756</v>
+        <v>-7.6576600410951947</v>
       </c>
       <c r="E129" s="3">
         <f t="shared" si="5"/>
-        <v>8.6691484414761053</v>
+        <v>6.0820580601532708</v>
       </c>
       <c r="T129" s="20"/>
       <c r="U129" s="3"/>
@@ -33613,15 +33595,15 @@
       </c>
       <c r="C130" s="3">
         <f t="shared" si="3"/>
-        <v>9.6644641073086248</v>
+        <v>7.5884717377404725</v>
       </c>
       <c r="D130" s="3">
         <f t="shared" si="4"/>
-        <v>-9.761704244711364</v>
+        <v>-7.733530731810812</v>
       </c>
       <c r="E130" s="3">
         <f t="shared" si="5"/>
-        <v>8.7657928143352937</v>
+        <v>6.157928750868888</v>
       </c>
       <c r="T130" s="21"/>
       <c r="U130" s="3"/>
@@ -33634,15 +33616,15 @@
       </c>
       <c r="C131" s="3">
         <f t="shared" si="3"/>
-        <v>9.6645135890738416</v>
+        <v>7.5911659838349408</v>
       </c>
       <c r="D131" s="3">
         <f t="shared" si="4"/>
-        <v>-9.8583491371943524</v>
+        <v>-7.8094290293593671</v>
       </c>
       <c r="E131" s="3">
         <f t="shared" si="5"/>
-        <v>8.862437706818282</v>
+        <v>6.2338270484174432</v>
       </c>
       <c r="T131" s="21"/>
       <c r="U131" s="3"/>
@@ -33655,15 +33637,15 @@
       </c>
       <c r="C132" s="3">
         <f t="shared" si="3"/>
-        <v>9.6645584944466183</v>
+        <v>7.5937326171245267</v>
       </c>
       <c r="D132" s="3">
         <f t="shared" si="4"/>
-        <v>-9.9549945012429859</v>
+        <v>-7.8853536261448749</v>
       </c>
       <c r="E132" s="3">
         <f t="shared" si="5"/>
-        <v>8.9590830708669156</v>
+        <v>6.309751645202951</v>
       </c>
       <c r="T132" s="20"/>
       <c r="U132" s="3"/>
@@ -33676,15 +33658,15 @@
       </c>
       <c r="C133" s="3">
         <f t="shared" si="3"/>
-        <v>9.6645992466812114</v>
+        <v>7.5961776819820894</v>
       </c>
       <c r="D133" s="3">
         <f t="shared" si="4"/>
-        <v>-10.051640293243837</v>
+        <v>-7.9613032765055518</v>
       </c>
       <c r="E133" s="3">
         <f t="shared" si="5"/>
-        <v>9.0557288628677668</v>
+        <v>6.3857012955636279</v>
       </c>
       <c r="T133" s="21"/>
       <c r="U133" s="3"/>
@@ -33697,15 +33679,15 @@
       </c>
       <c r="C134" s="3">
         <f t="shared" si="3"/>
-        <v>9.6646362298865967</v>
+        <v>7.5985069364891284</v>
       </c>
       <c r="D134" s="3">
         <f t="shared" si="4"/>
-        <v>-10.148286473617123</v>
+        <v>-8.0372767937803111</v>
       </c>
       <c r="E134" s="3">
         <f t="shared" si="5"/>
-        <v>9.1523750432410527</v>
+        <v>6.4616748128383872</v>
       </c>
       <c r="T134" s="20"/>
       <c r="U134" s="3"/>
@@ -33718,15 +33700,15 @@
       </c>
       <c r="C135" s="3">
         <f t="shared" si="3"/>
-        <v>9.6646697926468761</v>
+        <v>7.6007258659959609</v>
       </c>
       <c r="D135" s="3">
         <f t="shared" si="4"/>
-        <v>-10.244933006443663</v>
+        <v>-8.1132730475141948</v>
       </c>
       <c r="E135" s="3">
         <f t="shared" si="5"/>
-        <v>9.2490215760675927</v>
+        <v>6.5376710665722708</v>
       </c>
       <c r="T135" s="21"/>
       <c r="U135" s="3"/>
@@ -33739,15 +33721,15 @@
       </c>
       <c r="C136" s="3">
         <f t="shared" si="3"/>
-        <v>9.6647002513068543</v>
+        <v>7.602839696039613</v>
       </c>
       <c r="D136" s="3">
         <f t="shared" si="4"/>
-        <v>-10.341579859126307</v>
+        <v>-8.1892909607961784</v>
       </c>
       <c r="E136" s="3">
         <f t="shared" si="5"/>
-        <v>9.345668428750237</v>
+        <v>6.6136889798542544</v>
       </c>
       <c r="T136" s="21"/>
       <c r="U136" s="3"/>
@@ -33760,15 +33742,15 @@
       </c>
       <c r="C137" s="3">
         <f t="shared" si="3"/>
-        <v>9.6647278929537208</v>
+        <v>7.6048534046498624</v>
       </c>
       <c r="D137" s="3">
         <f t="shared" si="4"/>
-        <v>-10.438227002082703</v>
+        <v>-8.2653295077230666</v>
       </c>
       <c r="E137" s="3">
         <f t="shared" si="5"/>
-        <v>9.4423155717066329</v>
+        <v>6.6897275267811427</v>
       </c>
       <c r="T137" s="20"/>
       <c r="U137" s="3"/>
@@ -33781,15 +33763,15 @@
       </c>
       <c r="C138" s="3">
         <f t="shared" si="3"/>
-        <v>9.6647529781230013</v>
+        <v>7.6067717340724057</v>
       </c>
       <c r="D138" s="3">
         <f t="shared" si="4"/>
-        <v>-10.534874408466465</v>
+        <v>-8.3413877109835024</v>
       </c>
       <c r="E138" s="3">
         <f t="shared" si="5"/>
-        <v>9.5389629780903942</v>
+        <v>6.7657857300415785</v>
       </c>
       <c r="T138" s="21"/>
       <c r="U138" s="3"/>
@@ -33802,15 +33784,15 @@
       </c>
       <c r="C139" s="3">
         <f t="shared" si="3"/>
-        <v>9.6647757432542107</v>
+        <v>7.6085992019367561</v>
       </c>
       <c r="D139" s="3">
         <f t="shared" si="4"/>
-        <v>-10.63152205391413</v>
+        <v>-8.4174646395564228</v>
       </c>
       <c r="E139" s="3">
         <f t="shared" si="5"/>
-        <v>9.6356106235380601</v>
+        <v>6.8418626586144988</v>
       </c>
       <c r="T139" s="21"/>
       <c r="U139" s="3"/>
@@ -33823,15 +33805,15 @@
       </c>
       <c r="C140" s="3">
         <f t="shared" si="3"/>
-        <v>9.6647964029194178</v>
+        <v>7.610340111895173</v>
       </c>
       <c r="D140" s="3">
         <f t="shared" si="4"/>
-        <v>-10.728169916315531</v>
+        <v>-8.4935594065185267</v>
       </c>
       <c r="E140" s="3">
         <f t="shared" si="5"/>
-        <v>9.732258485939461</v>
+        <v>6.9179574255766028</v>
       </c>
       <c r="T140" s="20"/>
       <c r="U140" s="3"/>
@@ -33844,15 +33826,15 @@
       </c>
       <c r="C141" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648151518456835</v>
+        <v>7.6119985637576884</v>
       </c>
       <c r="D141" s="3">
         <f t="shared" si="4"/>
-        <v>-10.824817975605388</v>
+        <v>-8.5696711669555778</v>
       </c>
       <c r="E141" s="3">
         <f t="shared" si="5"/>
-        <v>9.8289065452293176</v>
+        <v>6.9940691860136539</v>
       </c>
       <c r="T141" s="21"/>
       <c r="U141" s="3"/>
@@ -33865,15 +33847,15 @@
       </c>
       <c r="C142" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648321667504575</v>
+        <v>7.613578463147074</v>
       </c>
       <c r="D142" s="3">
         <f t="shared" si="4"/>
-        <v>-10.921466213574186</v>
+        <v>-8.6457991159726522</v>
       </c>
       <c r="E142" s="3">
         <f t="shared" si="5"/>
-        <v>9.9255547831981161</v>
+        <v>7.0701971350307282</v>
       </c>
       <c r="T142" s="21"/>
       <c r="U142" s="3"/>
@@ -33886,15 +33868,15 @@
       </c>
       <c r="C143" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648476080072143</v>
+        <v>7.6150835306965146</v>
       </c>
       <c r="D143" s="3">
         <f t="shared" si="4"/>
-        <v>-11.018114613696548</v>
+        <v>-8.7219424867986266</v>
       </c>
       <c r="E143" s="3">
         <f t="shared" si="5"/>
-        <v>10.022203183320478</v>
+        <v>7.1463405058567027</v>
       </c>
       <c r="T143" s="20"/>
       <c r="U143" s="3"/>
@@ -33907,15 +33889,15 @@
       </c>
       <c r="C144" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648616211570655</v>
+        <v>7.616517310811628</v>
       </c>
       <c r="D144" s="3">
         <f t="shared" si="4"/>
-        <v>-11.114763160975468</v>
+        <v>-8.7981005489804502</v>
       </c>
       <c r="E144" s="3">
         <f t="shared" si="5"/>
-        <v>10.118851730599397</v>
+        <v>7.2224985680385263</v>
       </c>
       <c r="T144" s="21"/>
       <c r="U144" s="3"/>
@@ -33928,15 +33910,15 @@
       </c>
       <c r="C145" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648743382805353</v>
+        <v>7.6178831800174702</v>
       </c>
       <c r="D145" s="3">
         <f t="shared" si="4"/>
-        <v>-11.211411841800956</v>
+        <v>-8.8742726066629256</v>
       </c>
       <c r="E145" s="3">
         <f t="shared" si="5"/>
-        <v>10.215500411424886</v>
+        <v>7.2986706257210017</v>
       </c>
       <c r="T145" s="21"/>
       <c r="U145" s="3"/>
@@ -33949,15 +33931,15 @@
       </c>
       <c r="C146" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648858792424939</v>
+        <v>7.6191843549101907</v>
       </c>
       <c r="D146" s="3">
         <f t="shared" si="4"/>
-        <v>-11.30806064382177</v>
+        <v>-8.9504579969500107</v>
       </c>
       <c r="E146" s="3">
         <f t="shared" si="5"/>
-        <v>10.3121492134457</v>
+        <v>7.3748560160080867</v>
       </c>
       <c r="T146" s="20"/>
       <c r="U146" s="3"/>
@@ -33970,15 +33952,15 @@
       </c>
       <c r="C147" s="3">
         <f t="shared" si="3"/>
-        <v>9.6648963528219376</v>
+        <v>7.6204238997320566</v>
       </c>
       <c r="D147" s="3">
         <f t="shared" si="4"/>
-        <v>-11.404709555828981</v>
+        <v>-9.0266560883436835</v>
       </c>
       <c r="E147" s="3">
         <f t="shared" si="5"/>
-        <v>10.408798125452911</v>
+        <v>7.4510541074017596</v>
       </c>
       <c r="T147" s="21"/>
       <c r="U147" s="3"/>
@@ -33991,15 +33973,15 @@
       </c>
       <c r="C148" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649058577372777</v>
+        <v>7.6216047335876818</v>
       </c>
       <c r="D148" s="3">
         <f t="shared" si="4"/>
-        <v>-11.501358567650342</v>
+        <v>-9.1028662792567889</v>
       </c>
       <c r="E148" s="3">
         <f t="shared" si="5"/>
-        <v>10.505447137274272</v>
+        <v>7.527264298314865</v>
       </c>
       <c r="T148" s="21"/>
       <c r="U148" s="3"/>
@@ -34012,15 +33994,15 @@
       </c>
       <c r="C149" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649144835768084</v>
+        <v>7.6227296373184652</v>
       </c>
       <c r="D149" s="3">
         <f t="shared" si="4"/>
-        <v>-11.598007670054393</v>
+        <v>-9.1790879965963175</v>
       </c>
       <c r="E149" s="3">
         <f t="shared" si="5"/>
-        <v>10.602096239678323</v>
+        <v>7.6034860156543935</v>
       </c>
       <c r="T149" s="20"/>
       <c r="U149" s="3"/>
@@ -34033,15 +34015,15 @@
       </c>
       <c r="C150" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649223116431262</v>
+        <v>7.6238012600514198</v>
       </c>
       <c r="D150" s="3">
         <f t="shared" si="4"/>
-        <v>-11.694656854663469</v>
+        <v>-9.2553206944137703</v>
       </c>
       <c r="E150" s="3">
         <f t="shared" si="5"/>
-        <v>10.698745424287399</v>
+        <v>7.6797187134718463</v>
       </c>
       <c r="T150" s="21"/>
       <c r="U150" s="3"/>
@@ -34054,15 +34036,15 @@
       </c>
       <c r="C151" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649294157194383</v>
+        <v>7.6248221254378166</v>
       </c>
       <c r="D151" s="3">
         <f t="shared" si="4"/>
-        <v>-11.791306113874715</v>
+        <v>-9.3315638526194693</v>
       </c>
       <c r="E151" s="3">
         <f t="shared" si="5"/>
-        <v>10.795394683498644</v>
+        <v>7.7559618716775454</v>
       </c>
       <c r="T151" s="21"/>
       <c r="U151" s="3"/>
@@ -34075,15 +34057,15 @@
       </c>
       <c r="C152" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649358627650024</v>
+        <v>7.6257946375963357</v>
       </c>
       <c r="D152" s="3">
         <f t="shared" si="4"/>
-        <v>-11.887955440788444</v>
+        <v>-9.4078169757577506</v>
       </c>
       <c r="E152" s="3">
         <f t="shared" si="5"/>
-        <v>10.892044010412373</v>
+        <v>7.8322149948158266</v>
       </c>
       <c r="T152" s="20"/>
       <c r="U152" s="3"/>
@@ -34096,15 +34078,15 @@
       </c>
       <c r="C153" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649417135462592</v>
+        <v>7.6267210867747179</v>
       </c>
       <c r="D153" s="3">
         <f t="shared" si="4"/>
-        <v>-11.984604829143089</v>
+        <v>-9.4840795918401781</v>
       </c>
       <c r="E153" s="3">
         <f t="shared" si="5"/>
-        <v>10.988693398767019</v>
+        <v>7.9084776108982542</v>
       </c>
       <c r="T153" s="21"/>
       <c r="U153" s="3"/>
@@ -34117,15 +34099,15 @@
       </c>
       <c r="C154" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649470232095691</v>
+        <v>7.6276036547432602</v>
       </c>
       <c r="D154" s="3">
         <f t="shared" si="4"/>
-        <v>-12.081254273256208</v>
+        <v>-9.5603512512340227</v>
       </c>
       <c r="E154" s="3">
         <f t="shared" si="5"/>
-        <v>11.085342842880138</v>
+        <v>7.9847492702920988</v>
       </c>
       <c r="T154" s="21"/>
       <c r="U154" s="3"/>
@@ -34138,15 +34120,15 @@
       </c>
       <c r="C155" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649518418010079</v>
+        <v>7.6284444199328361</v>
       </c>
       <c r="D155" s="3">
         <f t="shared" si="4"/>
-        <v>-12.177903767970891</v>
+        <v>-9.6366315256033825</v>
       </c>
       <c r="E155" s="3">
         <f t="shared" si="5"/>
-        <v>11.181992337594821</v>
+        <v>8.0610295446614586</v>
       </c>
       <c r="T155" s="20"/>
       <c r="U155" s="3"/>
@@ -34159,15 +34141,15 @@
       </c>
       <c r="C156" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649562147380657</v>
+        <v>7.6292453623295682</v>
       </c>
       <c r="D156" s="3">
         <f t="shared" si="4"/>
-        <v>-12.27455330860718</v>
+        <v>-9.7129200069004558</v>
       </c>
       <c r="E156" s="3">
         <f t="shared" si="5"/>
-        <v>11.27864187823111</v>
+        <v>8.1373180259585318</v>
       </c>
       <c r="T156" s="21"/>
       <c r="U156" s="3"/>
@@ -34180,15 +34162,15 @@
       </c>
       <c r="C157" s="3">
         <f t="shared" si="3"/>
-        <v>9.6649601832377314</v>
+        <v>7.6300083681376547</v>
       </c>
       <c r="D157" s="3">
         <f t="shared" si="4"/>
-        <v>-12.371202890917951</v>
+        <v>-9.7892163064046027</v>
       </c>
       <c r="E157" s="3">
         <f t="shared" si="5"/>
-        <v>11.375291460541881</v>
+        <v>8.2136143254626788</v>
       </c>
       <c r="T157" s="21"/>
       <c r="U157" s="3"/>
@@ -34200,16 +34182,16 @@
         <v>1.29</v>
       </c>
       <c r="C158" s="3">
-        <f t="shared" ref="C158:C221" si="6">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B158/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
-        <v>9.6649637847049803</v>
+        <f t="shared" ref="C158:C179" si="6">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B158/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
+        <v>7.6307352342213433</v>
       </c>
       <c r="D158" s="3">
-        <f t="shared" ref="D158:D221" si="7">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B158/$B$21/$B$25) + (4*$B$23*B158)) / (8*$B$23*$B$23)</f>
-        <v>-12.467852511048878</v>
+        <f t="shared" ref="D158:D179" si="7">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B158/$B$21/$B$25) + (4*$B$23*B158)) / (8*$B$23*$B$23)</f>
+        <v>-9.8655200538069145</v>
       </c>
       <c r="E158" s="3">
-        <f t="shared" ref="E158:E221" si="8">-(D158-$D$29)</f>
-        <v>11.471941080672808</v>
+        <f t="shared" ref="E158:E179" si="8">-(D158-$D$29)</f>
+        <v>8.2899180728649906</v>
       </c>
       <c r="T158" s="20"/>
       <c r="U158" s="3"/>
@@ -34222,15 +34204,15 @@
       </c>
       <c r="C159" s="3">
         <f t="shared" si="6"/>
-        <v>9.664967053085336</v>
+        <v>7.6314276723365175</v>
       </c>
       <c r="D159" s="3">
         <f t="shared" si="7"/>
-        <v>-12.564502165502109</v>
+        <v>-9.9418308963381392</v>
       </c>
       <c r="E159" s="3">
         <f t="shared" si="8"/>
-        <v>11.568590735126039</v>
+        <v>8.3662289153962153</v>
       </c>
       <c r="T159" s="21"/>
       <c r="U159" s="3"/>
@@ -34243,15 +34225,15 @@
       </c>
       <c r="C160" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649700191848176</v>
+        <v>7.6320873131618416</v>
       </c>
       <c r="D160" s="3">
         <f t="shared" si="7"/>
-        <v>-12.661151851103297</v>
+        <v>-10.018148497937922</v>
       </c>
       <c r="E160" s="3">
         <f t="shared" si="8"/>
-        <v>11.665240420727226</v>
+        <v>8.4425465169959981</v>
       </c>
       <c r="T160" s="20"/>
       <c r="U160" s="3"/>
@@ -34264,15 +34246,15 @@
       </c>
       <c r="C161" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649727109603099</v>
+        <v>7.632715710138986</v>
       </c>
       <c r="D161" s="3">
         <f t="shared" si="7"/>
-        <v>-12.757801564971679</v>
+        <v>-10.094472538463389</v>
       </c>
       <c r="E161" s="3">
         <f t="shared" si="8"/>
-        <v>11.761890134595609</v>
+        <v>8.5188705575214652</v>
       </c>
       <c r="T161" s="21"/>
       <c r="U161" s="3"/>
@@ -34285,15 +34267,15 @@
       </c>
       <c r="C162" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649751537830646</v>
+        <v>7.633314343130948</v>
       </c>
       <c r="D162" s="3">
         <f t="shared" si="7"/>
-        <v>-12.854451304492923</v>
+        <v>-10.170802712935206</v>
       </c>
       <c r="E162" s="3">
         <f t="shared" si="8"/>
-        <v>11.858539874116852</v>
+        <v>8.5952007319932822</v>
       </c>
       <c r="T162" s="21"/>
       <c r="U162" s="3"/>
@@ -34306,15 +34288,15 @@
       </c>
       <c r="C163" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649773706778301</v>
+        <v>7.6338846219071028</v>
       </c>
       <c r="D163" s="3">
         <f t="shared" si="7"/>
-        <v>-12.951101067294481</v>
+        <v>-10.247138730819373</v>
       </c>
       <c r="E163" s="3">
         <f t="shared" si="8"/>
-        <v>11.95518963691841</v>
+        <v>8.6715367498774487</v>
       </c>
       <c r="T163" s="20"/>
       <c r="U163" s="3"/>
@@ -34327,15 +34309,15 @@
       </c>
       <c r="C164" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649793825398866</v>
+        <v>7.6344278894631836</v>
       </c>
       <c r="D164" s="3">
         <f t="shared" si="7"/>
-        <v>-13.047750851223249</v>
+        <v>-10.323480315343014</v>
       </c>
       <c r="E164" s="3">
         <f t="shared" si="8"/>
-        <v>12.051839420847179</v>
+        <v>8.74787833440109</v>
       </c>
       <c r="T164" s="21"/>
       <c r="U164" s="3"/>
@@ -34348,15 +34330,15 @@
       </c>
       <c r="C165" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649812083319784</v>
+        <v>7.6349454251840125</v>
       </c>
       <c r="D165" s="3">
         <f t="shared" si="7"/>
-        <v>-13.144400654325242</v>
+        <v>-10.399827202842586</v>
       </c>
       <c r="E165" s="3">
         <f t="shared" si="8"/>
-        <v>12.148489223949172</v>
+        <v>8.8242252219006616</v>
       </c>
       <c r="T165" s="21"/>
       <c r="U165" s="3"/>
@@ -34369,15 +34351,15 @@
       </c>
       <c r="C166" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649828652630543</v>
+        <v>7.6354384478564228</v>
       </c>
       <c r="D166" s="3">
         <f t="shared" si="7"/>
-        <v>-13.241050474827196</v>
+        <v>-10.476179142142946</v>
       </c>
       <c r="E166" s="3">
         <f t="shared" si="8"/>
-        <v>12.245139044451125</v>
+        <v>8.9005771612010225</v>
       </c>
       <c r="T166" s="20"/>
       <c r="U166" s="3"/>
@@ -34390,15 +34372,15 @@
       </c>
       <c r="C167" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649843689504689</v>
+        <v>7.6359081185394864</v>
       </c>
       <c r="D167" s="3">
         <f t="shared" si="7"/>
-        <v>-13.337700311119852</v>
+        <v>-10.552535893965855</v>
       </c>
       <c r="E167" s="3">
         <f t="shared" si="8"/>
-        <v>12.341788880743781</v>
+        <v>8.976933913023931</v>
       </c>
       <c r="T167" s="21"/>
       <c r="U167" s="3"/>
@@ -34411,15 +34393,15 @@
       </c>
       <c r="C168" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649857335671836</v>
+        <v>7.6363555432987793</v>
       </c>
       <c r="D168" s="3">
         <f t="shared" si="7"/>
-        <v>-13.434350161742781</v>
+        <v>-10.628897230366475</v>
       </c>
       <c r="E168" s="3">
         <f t="shared" si="8"/>
-        <v>12.438438731366711</v>
+        <v>9.0532952494245507</v>
       </c>
       <c r="T168" s="21"/>
       <c r="U168" s="3"/>
@@ -34432,15 +34414,15 @@
       </c>
       <c r="C169" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649869719753525</v>
+        <v>7.6367817758111487</v>
       </c>
       <c r="D169" s="3">
         <f t="shared" si="7"/>
-        <v>-13.531000025370629</v>
+        <v>-10.705262934196551</v>
       </c>
       <c r="E169" s="3">
         <f t="shared" si="8"/>
-        <v>12.535088594994559</v>
+        <v>9.1296609532546267</v>
       </c>
       <c r="T169" s="20"/>
       <c r="U169" s="3"/>
@@ -34453,15 +34435,15 @@
       </c>
       <c r="C170" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649880958475567</v>
+        <v>7.6371878198460994</v>
       </c>
       <c r="D170" s="3">
         <f t="shared" si="7"/>
-        <v>-13.627649900800622</v>
+        <v>-10.781632798593053</v>
       </c>
       <c r="E170" s="3">
         <f t="shared" si="8"/>
-        <v>12.631738470424551</v>
+        <v>9.2060308176511292</v>
       </c>
       <c r="T170" s="21"/>
       <c r="U170" s="3"/>
@@ -34474,15 +34456,15 @@
       </c>
       <c r="C171" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649891157768177</v>
+        <v>7.6375746316296569</v>
       </c>
       <c r="D171" s="3">
         <f t="shared" si="7"/>
-        <v>-13.724299786941216</v>
+        <v>-10.858006626491001</v>
       </c>
       <c r="E171" s="3">
         <f t="shared" si="8"/>
-        <v>12.728388356565146</v>
+        <v>9.282404645549077</v>
       </c>
       <c r="T171" s="21"/>
       <c r="U171" s="3"/>
@@ -34495,15 +34477,15 @@
       </c>
       <c r="C172" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649900413764485</v>
+        <v>7.6379431220962557</v>
       </c>
       <c r="D172" s="3">
         <f t="shared" si="7"/>
-        <v>-13.820949682801825</v>
+        <v>-10.934384230159385</v>
       </c>
       <c r="E172" s="3">
         <f t="shared" si="8"/>
-        <v>12.825038252425754</v>
+        <v>9.3587822492174606</v>
       </c>
       <c r="T172" s="20"/>
       <c r="U172" s="3"/>
@@ -34516,15 +34498,15 @@
       </c>
       <c r="C173" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649908813706631</v>
+        <v>7.6382941590339755</v>
       </c>
       <c r="D173" s="3">
         <f t="shared" si="7"/>
-        <v>-13.917599587483483</v>
+        <v>-11.010765430759061</v>
       </c>
       <c r="E173" s="3">
         <f t="shared" si="8"/>
-        <v>12.921688157107413</v>
+        <v>9.4351634498171375</v>
       </c>
       <c r="T173" s="21"/>
       <c r="U173" s="3"/>
@@ -34537,15 +34519,15 @@
       </c>
       <c r="C174" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649916436768031</v>
+        <v>7.6386285691281675</v>
       </c>
       <c r="D174" s="3">
         <f t="shared" si="7"/>
-        <v>-14.01424950017036</v>
+        <v>-11.087150057921601</v>
       </c>
       <c r="E174" s="3">
         <f t="shared" si="8"/>
-        <v>13.018338069794289</v>
+        <v>9.5115480769796772</v>
       </c>
       <c r="T174" s="21"/>
       <c r="U174" s="3"/>
@@ -34558,15 +34540,15 @@
       </c>
       <c r="C175" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649923354799583</v>
+        <v>7.6389471399082778</v>
       </c>
       <c r="D175" s="3">
         <f t="shared" si="7"/>
-        <v>-14.110899420122083</v>
+        <v>-11.163537949348056</v>
       </c>
       <c r="E175" s="3">
         <f t="shared" si="8"/>
-        <v>13.114987989746012</v>
+        <v>9.587935968406132</v>
       </c>
       <c r="T175" s="20"/>
       <c r="U175" s="3"/>
@@ -34579,15 +34561,15 @@
       </c>
       <c r="C176" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649929633006995</v>
+        <v>7.6392506216024714</v>
       </c>
       <c r="D176" s="3">
         <f t="shared" si="7"/>
-        <v>-14.207549346666749</v>
+        <v>-11.23992895042676</v>
       </c>
       <c r="E176" s="3">
         <f t="shared" si="8"/>
-        <v>13.211637916290679</v>
+        <v>9.6643269694848364</v>
       </c>
       <c r="T176" s="21"/>
       <c r="U176" s="3"/>
@@ -34600,15 +34582,15 @@
       </c>
       <c r="C177" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649935330565349</v>
+        <v>7.6395397289043965</v>
       </c>
       <c r="D177" s="3">
         <f t="shared" si="7"/>
-        <v>-14.304199279194606</v>
+        <v>-11.316322913869223</v>
       </c>
       <c r="E177" s="3">
         <f t="shared" si="8"/>
-        <v>13.308287848818535</v>
+        <v>9.7407209329272995</v>
       </c>
       <c r="T177" s="21"/>
       <c r="U177" s="3"/>
@@ -34621,15 +34603,15 @@
       </c>
       <c r="C178" s="3">
         <f t="shared" si="6"/>
-        <v>9.664994050117679</v>
+        <v>7.6398151426562837</v>
       </c>
       <c r="D178" s="3">
         <f t="shared" si="7"/>
-        <v>-14.400849217152288</v>
+        <v>-11.392719699363264</v>
       </c>
       <c r="E178" s="3">
         <f t="shared" si="8"/>
-        <v>13.404937786776218</v>
+        <v>9.8171177184213398</v>
       </c>
       <c r="T178" s="20"/>
       <c r="U178" s="3"/>
@@ -34642,15 +34624,15 @@
       </c>
       <c r="C179" s="3">
         <f t="shared" si="6"/>
-        <v>9.6649945193576787</v>
+        <v>7.6400775114523087</v>
       </c>
       <c r="D179" s="3">
         <f t="shared" si="7"/>
-        <v>-14.497499160037606</v>
+        <v>-11.469119173242575</v>
       </c>
       <c r="E179" s="3">
         <f t="shared" si="8"/>
-        <v>13.501587729661535</v>
+        <v>9.8935171923006511</v>
       </c>
       <c r="T179" s="21"/>
       <c r="U179" s="3"/>
@@ -36273,7 +36255,7 @@
       </c>
       <c r="E4" s="23">
         <f>'High Speed System'!C30</f>
-        <v>0.89388138718947907</v>
+        <v>0.36212175541430547</v>
       </c>
       <c r="F4" s="23">
         <v>4.541685845174559E-3</v>
@@ -36297,7 +36279,7 @@
       </c>
       <c r="E5" s="23">
         <f>'High Speed System'!C31</f>
-        <v>1.7050908647248431</v>
+        <v>0.70709163557397225</v>
       </c>
       <c r="F5" s="23">
         <v>1.760214119478043E-2</v>
@@ -36321,7 +36303,7 @@
       </c>
       <c r="E6" s="23">
         <f>'High Speed System'!C32</f>
-        <v>2.4412744634372601</v>
+        <v>1.0357220380230618</v>
       </c>
       <c r="F6" s="23">
         <v>3.8393495361578767E-2</v>
@@ -36345,7 +36327,7 @@
       </c>
       <c r="E7" s="23">
         <f>'High Speed System'!C33</f>
-        <v>3.1093710599659161</v>
+        <v>1.3487868811446244</v>
       </c>
       <c r="F7" s="23">
         <v>6.6200745015463802E-2</v>
@@ -36369,7 +36351,7 @@
       </c>
       <c r="E8" s="23">
         <f>'High Speed System'!C34</f>
-        <v>3.7156777789336353</v>
+        <v>1.6470234267238553</v>
       </c>
       <c r="F8" s="23">
         <v>0.10037501494081624</v>
@@ -36393,7 +36375,7 @@
       </c>
       <c r="E9" s="23">
         <f>'High Speed System'!C35</f>
-        <v>4.2659093463079376</v>
+        <v>1.9311340161856538</v>
       </c>
       <c r="F9" s="23">
         <v>0.14032744208243342</v>
@@ -36417,7 +36399,7 @@
       </c>
       <c r="E10" s="23">
         <f>'High Speed System'!C36</f>
-        <v>4.7652519533808828</v>
+        <v>2.2017877245954001</v>
       </c>
       <c r="F10" s="23">
         <v>0.18552362523429844</v>
@@ -36441,7 +36423,7 @@
       </c>
       <c r="E11" s="23">
         <f>'High Speed System'!C37</f>
-        <v>5.2184121390610017</v>
+        <v>2.4596219363180758</v>
       </c>
       <c r="F11" s="23">
         <v>0.23547858805688793</v>
@@ -36465,7 +36447,7 @@
       </c>
       <c r="E12" s="23">
         <f>'High Speed System'!C38</f>
-        <v>5.629661151215986</v>
+        <v>2.705243846046395</v>
       </c>
       <c r="F12" s="23">
         <v>0.28975220794709045</v>
@@ -36489,7 +36471,7 @@
       </c>
       <c r="E13" s="23">
         <f>'High Speed System'!C39</f>
-        <v>6.0028752051925496</v>
+        <v>2.9392318887328219</v>
       </c>
       <c r="F13" s="23">
         <v>0.347945067675689</v>
@@ -36513,7 +36495,7 @@
       </c>
       <c r="E14" s="23">
         <f>'High Speed System'!C40</f>
-        <v>6.3415720189690363</v>
+        <v>3.1621371017929434</v>
       </c>
       <c r="F14" s="23">
         <v>0.40969469069212905</v>
@@ -36537,7 +36519,7 @@
       </c>
       <c r="E15" s="23">
         <f>'High Speed System'!C41</f>
-        <v>6.6489439693017216</v>
+        <v>3.3744844227881661</v>
       </c>
       <c r="F15" s="23">
         <v>0.47467212461256292</v>
@@ -36561,7 +36543,7 @@
       </c>
       <c r="E16" s="23">
         <f>'High Speed System'!C42</f>
-        <v>6.927888181377087</v>
+        <v>3.5767739256437387</v>
       </c>
       <c r="F16" s="23">
         <v>0.54257884068892581</v>
@@ -36585,7 +36567,7 @@
       </c>
       <c r="E17" s="23">
         <f>'High Speed System'!C43</f>
-        <v>7.1810338355791981</v>
+        <v>3.7694819983134007</v>
       </c>
       <c r="F17" s="23">
         <v>0.6131439200350921</v>
@@ -36609,7 +36591,7 @@
       </c>
       <c r="E18" s="23">
         <f>'High Speed System'!C44</f>
-        <v>7.4107669487513057</v>
+        <v>3.9530624646639918</v>
       </c>
       <c r="F18" s="23">
         <v>0.68612150008896</v>
@@ -36633,7 +36615,7 @@
       </c>
       <c r="E19" s="23">
         <f>'High Speed System'!C45</f>
-        <v>7.6192528635267252</v>
+        <v>4.1279476532220869</v>
       </c>
       <c r="F19" s="23">
         <v>0.7612884572421792</v>
@@ -36657,7 +36639,7 @@
       </c>
       <c r="E20" s="23">
         <f>'High Speed System'!C46</f>
-        <v>7.8084566577014884</v>
+        <v>4.2945494152994907</v>
       </c>
       <c r="F20" s="23">
         <v>0.83844230379520579</v>
@@ -36681,7 +36663,7 @@
       </c>
       <c r="E21" s="23">
         <f>'High Speed System'!C47</f>
-        <v>7.9801616660167403</v>
+        <v>4.4532600948953007</v>
       </c>
       <c r="F21" s="23">
         <v>0.91739927941550858</v>
@@ -36705,7 +36687,7 @@
       </c>
       <c r="E22" s="23">
         <f>'High Speed System'!C48</f>
-        <v>8.1359862889273593</v>
+        <v>4.6044534526585874</v>
       </c>
       <c r="F22" s="23">
         <v>0.9979926191100128</v>
@@ -36729,7 +36711,7 @@
       </c>
       <c r="E23" s="23">
         <f>'High Speed System'!C49</f>
-        <v>8.2773992467873629</v>
+        <v>4.7484855460876751</v>
       </c>
       <c r="F23" s="23">
         <v>1.0800709813866116</v>
@@ -36753,7 +36735,7 @@
       </c>
       <c r="E24" s="23">
         <f>'High Speed System'!C50</f>
-        <v>8.4057334232299787</v>
+        <v>4.8856955680388037</v>
       </c>
       <c r="F24" s="23">
         <v>1.1634970217894294</v>
@@ -36777,7 +36759,7 @@
       </c>
       <c r="E25" s="23">
         <f>'High Speed System'!C51</f>
-        <v>8.5221984282227243</v>
+        <v>5.0164066455188951</v>
       </c>
       <c r="F25" s="23">
         <v>1.248146098362731</v>
@@ -36801,7 +36783,7 @@
       </c>
       <c r="E26" s="23">
         <f>'High Speed System'!C52</f>
-        <v>8.6278919992102274</v>
+        <v>5.1409266006435423</v>
       </c>
       <c r="F26" s="23">
         <v>1.3339050968418742</v>
@@ -36825,7 +36807,7 @@
       </c>
       <c r="E27" s="23">
         <f>'High Speed System'!C53</f>
-        <v>8.7238103478058946</v>
+        <v>5.2595486755522707</v>
       </c>
       <c r="F27" s="23">
         <v>1.4206713644981663</v>
@@ -36849,7 +36831,7 @@
       </c>
       <c r="E28" s="23">
         <f>'High Speed System'!C54</f>
-        <v>8.8108575495548802</v>
+        <v>5.3725522229882348</v>
       </c>
       <c r="F28" s="23">
         <v>1.5083517425886188</v>
@@ -36873,7 +36855,7 @@
       </c>
       <c r="E29" s="23">
         <f>'High Speed System'!C55</f>
-        <v>8.8898540652712796</v>
+        <v>5.4802033641686414</v>
       </c>
       <c r="F29" s="23">
         <v>1.5968616882909865</v>
@@ -36897,7 +36879,7 @@
       </c>
       <c r="E30" s="23">
         <f>'High Speed System'!C56</f>
-        <v>8.9615444742671571</v>
+        <v>5.5827556154951807</v>
       </c>
       <c r="F30" s="23">
         <v>1.6861244778479021</v>
@@ -36921,7 +36903,7 @@
       </c>
       <c r="E31" s="23">
         <f>'High Speed System'!C57</f>
-        <v>9.0266044923627256</v>
+        <v>5.6804504855803666</v>
       </c>
       <c r="F31" s="23">
         <v>1.7760704834093879</v>
@@ -36945,7 +36927,7 @@
       </c>
       <c r="E32" s="23">
         <f>'High Speed System'!C58</f>
-        <v>9.0856473408257532</v>
+        <v>5.7735180439957459</v>
       </c>
       <c r="F32" s="23">
         <v>1.8666365167576151</v>
@@ -36969,7 +36951,7 @@
       </c>
       <c r="E33" s="23">
         <f>'High Speed System'!C59</f>
-        <v>9.1392295262703858</v>
+        <v>5.8621774630813901</v>
       </c>
       <c r="F33" s="23">
         <v>1.9577652337282463</v>
@@ -36993,7 +36975,7 @@
       </c>
       <c r="E34" s="23">
         <f>'High Speed System'!C60</f>
-        <v>9.1878560859937171</v>
+        <v>5.9466375340926119</v>
       </c>
       <c r="F34" s="23">
         <v>2.0494045937147045</v>
@@ -37017,7 +36999,7 @@
       </c>
       <c r="E35" s="23">
         <f>'High Speed System'!C61</f>
-        <v>9.2319853481898253</v>
+        <v>6.0270971588994193</v>
       </c>
       <c r="F35" s="23">
         <v>2.1415073691609909</v>
@@ -37041,7 +37023,7 @@
       </c>
       <c r="E36" s="23">
         <f>'High Speed System'!C62</f>
-        <v>9.2720332519085531</v>
+        <v>6.103745818396666</v>
       </c>
       <c r="F36" s="23">
         <v>2.2340307004197566</v>
@@ -37065,7 +37047,7 @@
       </c>
       <c r="E37" s="23">
         <f>'High Speed System'!C63</f>
-        <v>9.3083772674766578</v>
+        <v>6.1767640187279662</v>
       </c>
       <c r="F37" s="23">
         <v>2.3269356917799682</v>
@@ -37089,7 +37071,7 @@
       </c>
       <c r="E38" s="23">
         <f>'High Speed System'!C64</f>
-        <v>9.3413599543331767</v>
+        <v>6.2463237163742571</v>
       </c>
       <c r="F38" s="23">
         <v>2.4201870448565401</v>
@@ -37113,7 +37095,7 @@
       </c>
       <c r="E39" s="23">
         <f>'High Speed System'!C65</f>
-        <v>9.3712921898132269</v>
+        <v>6.3125887231080542</v>
       </c>
       <c r="F39" s="23">
         <v>2.5137527258864569</v>
@@ -37137,7 +37119,7 @@
       </c>
       <c r="E40" s="23">
         <f>'High Speed System'!C66</f>
-        <v>9.3984560993130994</v>
+        <v>6.3757150917670806</v>
       </c>
       <c r="F40" s="23">
         <v>2.6076036637954862</v>
@@ -37161,7 +37143,7 @@
       </c>
       <c r="E41" s="23">
         <f>'High Speed System'!C67</f>
-        <v>9.4231077154548046</v>
+        <v>6.4358514837557497</v>
       </c>
       <c r="F41" s="23">
         <v>2.7017134761896373</v>
@@ -37185,7 +37167,7 @@
       </c>
       <c r="E42" s="23">
         <f>'High Speed System'!C68</f>
-        <v>9.4454793913139383</v>
+        <v>6.4931395191399552</v>
       </c>
       <c r="F42" s="23">
         <v>2.796058220688689</v>
@@ -37209,7 +37191,7 @@
       </c>
       <c r="E43" s="23">
         <f>'High Speed System'!C69</f>
-        <v>9.4657819904566942</v>
+        <v>6.5477141101596565</v>
       </c>
       <c r="F43" s="23">
         <v>2.8906161692579921</v>
@@ -37233,7 +37215,7 @@
       </c>
       <c r="E44" s="23">
         <f>'High Speed System'!C70</f>
-        <v>9.4842068744281427</v>
+        <v>6.5997037789446473</v>
       </c>
       <c r="F44" s="23">
         <v>2.9853676034115306</v>
@@ -37257,7 +37239,7 @@
       </c>
       <c r="E45" s="23">
         <f>'High Speed System'!C71</f>
-        <v>9.5009277064247932</v>
+        <v>6.6492309601817414</v>
       </c>
       <c r="F45" s="23">
         <v>3.0802946283559156</v>
@@ -37281,7 +37263,7 @@
       </c>
       <c r="E46" s="23">
         <f>'High Speed System'!C72</f>
-        <v>9.5161020881518912</v>
+        <v>6.6964122894461457</v>
       </c>
       <c r="F46" s="23">
         <v>3.1753810043235391</v>
@@ -37305,7 +37287,7 @@
       </c>
       <c r="E47" s="23">
         <f>'High Speed System'!C73</f>
-        <v>9.5298730452936038</v>
+        <v>6.7413588778760332</v>
       </c>
       <c r="F47" s="23">
         <v>3.2706119935051272</v>
@@ -37329,7 +37311,7 @@
       </c>
       <c r="E48" s="23">
         <f>'High Speed System'!C74</f>
-        <v>9.5423703755973648</v>
+        <v>6.7841765738371738</v>
       </c>
       <c r="F48" s="23">
         <v>3.3659742211389596</v>
@@ -37353,7 +37335,7 @@
       </c>
       <c r="E49" s="23">
         <f>'High Speed System'!C75</f>
-        <v>9.5537118722786811</v>
+        <v>6.8249662121938304</v>
       </c>
       <c r="F49" s="23">
         <v>3.4614555494474515</v>
@@ -37377,7 +37359,7 @@
       </c>
       <c r="E50" s="23">
         <f>'High Speed System'!C76</f>
-        <v>9.5640044342775923</v>
+        <v>6.8638238517729633</v>
       </c>
       <c r="F50" s="23">
         <v>3.5570449632328835</v>
@@ -37401,7 +37383,7 @@
       </c>
       <c r="E51" s="23">
         <f>'High Speed System'!C77</f>
-        <v>9.5733450738314456</v>
+        <v>6.9008410015809467</v>
       </c>
       <c r="F51" s="23">
         <v>3.6527324660539926</v>
@@ -37425,7 +37407,7 @@
       </c>
       <c r="E52" s="23">
         <f>'High Speed System'!C78</f>
-        <v>9.5818218308608696</v>
+        <v>6.9361048363055469</v>
       </c>
       <c r="F52" s="23">
         <v>3.7485089860048055</v>
@@ -37449,7 +37431,7 @@
       </c>
       <c r="E53" s="23">
         <f>'High Speed System'!C79</f>
-        <v>9.5895146027874141</v>
+        <v>6.9696984016106676</v>
       </c>
       <c r="F53" s="23">
         <v>3.8443662902076619</v>
@@ -37473,7 +37455,7 @@
       </c>
       <c r="E54" s="23">
         <f>'High Speed System'!C80</f>
-        <v>9.5964958976043384</v>
+        <v>7.0017008097073168</v>
       </c>
       <c r="F54" s="23">
         <v>3.9402969072144658</v>
@@ -37497,7 +37479,7 @@
       </c>
       <c r="E55" s="23">
         <f>'High Speed System'!C81</f>
-        <v>9.6028315172985401</v>
+        <v>7.0321874256613652</v>
       </c>
       <c r="F55" s="23">
         <v>4.0362940565847811</v>
@@ -37521,7 +37503,7 @@
       </c>
       <c r="E56" s="23">
         <f>'High Speed System'!C82</f>
-        <v>9.6085811780652293</v>
+        <v>7.0612300448768526</v>
       </c>
       <c r="F56" s="23">
         <v>4.1323515849769841</v>
@@ -37545,7 +37527,7 @@
       </c>
       <c r="E57" s="23">
         <f>'High Speed System'!C83</f>
-        <v>9.6137990731611485</v>
+        <v>7.0888970621728093</v>
       </c>
       <c r="F57" s="23">
         <v>4.2284639081501307</v>
@@ -37569,7 +37551,7 @@
       </c>
       <c r="E58" s="23">
         <f>'High Speed System'!C84</f>
-        <v>9.6185343837015154</v>
+        <v>7.1152536328517559</v>
       </c>
       <c r="F58" s="23">
         <v>4.3246259583298539</v>
@@ -37593,7 +37575,7 @@
       </c>
       <c r="E59" s="23">
         <f>'High Speed System'!C85</f>
-        <v>9.6228317422151513</v>
+        <v>7.1403618261392143</v>
       </c>
       <c r="F59" s="23">
         <v>4.4208331364422158</v>
@@ -37617,7 +37599,7 @@
       </c>
       <c r="E60" s="23">
         <f>'High Speed System'!C86</f>
-        <v>9.6267316533270595</v>
+        <v>7.1642807713555552</v>
       </c>
       <c r="F60" s="23">
         <v>4.5170812687652546</v>
@@ -37641,7 +37623,7 @@
       </c>
       <c r="E61" s="23">
         <f>'High Speed System'!C87</f>
-        <v>9.6302708755335669</v>
+        <v>7.1870667971644338</v>
       </c>
       <c r="F61" s="23">
         <v>4.6133665675897184</v>
@@ -37665,7 +37647,7 @@
       </c>
       <c r="E62" s="23">
         <f>'High Speed System'!C88</f>
-        <v>9.6334827676684398</v>
+        <v>7.2087735642257247</v>
       </c>
       <c r="F62" s="23">
         <v>4.7096855955181081</v>
@@ -37689,7 +37671,7 @@
       </c>
       <c r="E63" s="23">
         <f>'High Speed System'!C89</f>
-        <v>9.6363976033255749</v>
+        <v>7.2294521915653602</v>
       </c>
       <c r="F63" s="23">
         <v>4.8060352330655807</v>
@@ -37713,7 +37695,7 @@
       </c>
       <c r="E64" s="23">
         <f>'High Speed System'!C90</f>
-        <v>9.6390428562018666</v>
+        <v>7.2491513769596736</v>
       </c>
       <c r="F64" s="23">
         <v>4.9024126492573608</v>
@@ -37737,7 +37719,7 @@
       </c>
       <c r="E65" s="23">
         <f>'High Speed System'!C91</f>
-        <v>9.6414434590497144</v>
+        <v>7.2679175116177372</v>
       </c>
       <c r="F65" s="23">
         <v>4.9988152749454535</v>
@@ -37761,7 +37743,7 @@
       </c>
       <c r="E66" s="23">
         <f>'High Speed System'!C92</f>
-        <v>9.6436220386799452</v>
+        <v>7.2857947894317849</v>
       </c>
       <c r="F66" s="23">
         <v>5.0952407785932223</v>
@@ -37785,7 +37767,7 @@
       </c>
       <c r="E67" s="23">
         <f>'High Speed System'!C93</f>
-        <v>9.645599129230142</v>
+        <v>7.3028253110529935</v>
       </c>
       <c r="F67" s="23">
         <v>5.1916870442995631</v>
@@ -37809,7 +37791,7 @@
       </c>
       <c r="E68" s="23">
         <f>'High Speed System'!C94</f>
-        <v>9.6473933657085489</v>
+        <v>7.3190491830377162</v>
       </c>
       <c r="F68" s="23">
         <v>5.2881521518555363</v>
@@ -37833,7 +37815,7 @@
       </c>
       <c r="E69" s="23">
         <f>'High Speed System'!C95</f>
-        <v>9.6490216596377909</v>
+        <v>7.3345046122976676</v>
       </c>
       <c r="F69" s="23">
         <v>5.3846343586454957</v>
@@ -37857,7 +37839,7 @@
       </c>
       <c r="E70" s="23">
         <f>'High Speed System'!C96</f>
-        <v>9.6504993584539243</v>
+        <v>7.3492279960764799</v>
       </c>
       <c r="F70" s="23">
         <v>5.4811320832221178</v>
@@ -37881,7 +37863,7 @@
       </c>
       <c r="E71" s="23">
         <f>'High Speed System'!C97</f>
-        <v>9.6518403901632439</v>
+        <v>7.3632540076645174</v>
       </c>
       <c r="F71" s="23">
         <v>5.5776438904005197</v>
@@ -37905,7 +37887,7 @@
       </c>
       <c r="E72" s="23">
         <f>'High Speed System'!C98</f>
-        <v>9.6530573946202853</v>
+        <v>7.3766156780538248</v>
       </c>
       <c r="F72" s="23">
         <v>5.6741684777309533</v>
@@ -37929,7 +37911,7 @@
       </c>
       <c r="E73" s="23">
         <f>'High Speed System'!C99</f>
-        <v>9.6541618426644025</v>
+        <v>7.3893444737254876</v>
       </c>
       <c r="F73" s="23">
         <v>5.7707046632226255</v>
@@ -37953,7 +37935,7 @@
       </c>
       <c r="E74" s="23">
         <f>'High Speed System'!C100</f>
-        <v>9.6551641442378244</v>
+        <v>7.4014703707525973</v>
       </c>
       <c r="F74" s="23">
         <v>5.867251374202862</v>
@@ -37977,7 +37959,7 @@
       </c>
       <c r="E75" s="23">
         <f>'High Speed System'!C101</f>
-        <v>9.6560737465042568</v>
+        <v>7.4130219253933411</v>
       </c>
       <c r="F75" s="23">
         <v>5.9638076372066653</v>
@@ -38001,7 +37983,7 @@
       </c>
       <c r="E76" s="23">
         <f>'High Speed System'!C102</f>
-        <v>9.6568992228928376</v>
+        <v>7.4240263413404479</v>
       </c>
       <c r="F76" s="23">
         <v>6.060372568801359</v>
@@ -38025,7 +38007,7 @@
       </c>
       <c r="E77" s="23">
         <f>'High Speed System'!C103</f>
-        <v>9.6576483539067457</v>
+        <v>7.4345095337853682</v>
       </c>
       <c r="F77" s="23">
         <v>6.1569453672598051</v>
@@ -38049,7 +38031,7 @@
       </c>
       <c r="E78" s="23">
         <f>'High Speed System'!C104</f>
-        <v>9.6583282004580973</v>
+        <v>7.4444961904480618</v>
       </c>
       <c r="F78" s="23">
         <v>6.2535253050037625</v>
@@ -38073,7 +38055,7 @@
       </c>
       <c r="E79" s="23">
         <f>'High Speed System'!C105</f>
-        <v>9.658945170420365</v>
+        <v>7.4540098297161137</v>
       </c>
       <c r="F79" s="23">
         <v>6.3501117217461118</v>
@@ -38097,7 +38079,7 @@
       </c>
       <c r="E80" s="23">
         <f>'High Speed System'!C106</f>
-        <v>9.6595050790255996</v>
+        <v>7.4630728560300872</v>
       </c>
       <c r="F80" s="23">
         <v>6.4467040182673401</v>
@@ -38121,7 +38103,7 @@
       </c>
       <c r="E81" s="23">
         <f>'High Speed System'!C107</f>
-        <v>9.6600132036757245</v>
+        <v>7.4717066126455602</v>
       </c>
       <c r="F81" s="23">
         <v>6.5433016507676118</v>
@@ -38145,7 +38127,7 @@
       </c>
       <c r="E82" s="23">
         <f>'High Speed System'!C108</f>
-        <v>9.6604743336845367</v>
+        <v>7.4799314318960919</v>
       </c>
       <c r="F82" s="23">
         <v>6.6399041257412108</v>
@@ -38169,7 +38151,7 @@
       </c>
       <c r="E83" s="23">
         <f>'High Speed System'!C109</f>
-        <v>9.6608928154192331</v>
+        <v>7.4877666830754759</v>
       </c>
       <c r="F83" s="23">
         <v>6.7365109953250037</v>
@@ -38193,7 +38175,7 @@
       </c>
       <c r="E84" s="23">
         <f>'High Speed System'!C110</f>
-        <v>9.6612725932669736</v>
+        <v>7.4952308180520681</v>
       </c>
       <c r="F84" s="23">
         <v>6.8331218530771274</v>
@@ -38217,7 +38199,7 @@
       </c>
       <c r="E85" s="23">
         <f>'High Speed System'!C111</f>
-        <v>9.6616172468125772</v>
+        <v>7.5023414147225855</v>
       </c>
       <c r="F85" s="23">
         <v>6.9297363301460777</v>
@@ -38241,7 +38223,7 @@
       </c>
       <c r="E86" s="23">
         <f>'High Speed System'!C112</f>
-        <v>9.661930024577801</v>
+        <v>7.5091152184077181</v>
       </c>
       <c r="F86" s="23">
         <v>7.0263540917941221</v>
@@ -38265,7 +38247,7 @@
       </c>
       <c r="E87" s="23">
         <f>'High Speed System'!C113</f>
-        <v>9.6622138746401784</v>
+        <v>7.5155681812870441</v>
       </c>
       <c r="F87" s="23">
         <v>7.1229748342422194</v>
@@ -38289,7 +38271,7 @@
       </c>
       <c r="E88" s="23">
         <f>'High Speed System'!C114</f>
-        <v>9.6624714724200409</v>
+        <v>7.5217154999661151</v>
       </c>
       <c r="F88" s="23">
         <v>7.2195982818067801</v>
@@ -38313,7 +38295,7 @@
       </c>
       <c r="E89" s="23">
         <f>'High Speed System'!C115</f>
-        <v>9.662705245897607</v>
+        <v>7.5275716512641662</v>
       </c>
       <c r="F89" s="23">
         <v>7.3162241843012019</v>
@@ -38337,7 +38319,7 @@
       </c>
       <c r="E90" s="23">
         <f>'High Speed System'!C116</f>
-        <v>9.6629173984978483</v>
+        <v>7.5331504263067606</v>
       </c>
       <c r="F90" s="23">
         <v>7.4128523146777585</v>
@@ -38361,7 +38343,7 @@
       </c>
       <c r="E91" s="23">
         <f>'High Speed System'!C117</f>
-        <v>9.663109929858793</v>
+        <v>7.538464963003622</v>
       </c>
       <c r="F91" s="23">
         <v>7.5094824668875546</v>
@@ -38385,7 +38367,7 @@
       </c>
       <c r="E92" s="23">
         <f>'High Speed System'!C118</f>
-        <v>9.6632846546790656</v>
+        <v>7.5435277769881708</v>
       </c>
       <c r="F92" s="23">
         <v>7.6061144539384262</v>
@@ -38409,7 +38391,7 @@
       </c>
       <c r="E93" s="23">
         <f>'High Speed System'!C119</f>
-        <v>9.6634432198222679</v>
+        <v>7.548350791091595</v>
       </c>
       <c r="F93" s="23">
         <v>7.7027481061324501</v>
@@ -38433,7 +38415,7 @@
       </c>
       <c r="E94" s="23">
         <f>'High Speed System'!C120</f>
-        <v>9.6635871198394465</v>
+        <v>7.5529453634209034</v>
       </c>
       <c r="F94" s="23">
         <v>7.7993832694664587</v>
@@ -38457,7 +38439,7 @@
       </c>
       <c r="E95" s="23">
         <f>'High Speed System'!C121</f>
-        <v>9.6637177110559378</v>
+        <v>7.5573223141070409</v>
       </c>
       <c r="F95" s="23">
         <v>7.8960198041804937</v>
@@ -38481,7 +38463,7 @@
       </c>
       <c r="E96" s="23">
         <f>'High Speed System'!C122</f>
-        <v>9.663836224355375</v>
+        <v>7.5614919507861034</v>
       </c>
       <c r="F96" s="23">
         <v>7.99265758344049</v>
@@ -38505,7 +38487,7 @@
       </c>
       <c r="E97" s="23">
         <f>'High Speed System'!C123</f>
-        <v>9.6639437767813412</v>
+        <v>7.5654640928736168</v>
       </c>
       <c r="F97" s="23">
         <v>8.0892964921428216</v>
@@ -38529,7 +38511,7 @@
       </c>
       <c r="E98" s="23">
         <f>'High Speed System'!C124</f>
-        <v>9.6640413820660314</v>
+        <v>7.5692480946890806</v>
       </c>
       <c r="F98" s="23">
         <v>8.1859364258293841</v>
@@ -38553,7 +38535,7 @@
       </c>
       <c r="E99" s="23">
         <f>'High Speed System'!C125</f>
-        <v>9.6641299601851536</v>
+        <v>7.5728528674852109</v>
       </c>
       <c r="F99" s="23">
         <v>8.282577289703033</v>
@@ -38577,7 +38559,7 @@
       </c>
       <c r="E100" s="23">
         <f>'High Speed System'!C126</f>
-        <v>9.6642103460291438</v>
+        <v>7.5762869004337725</v>
       </c>
       <c r="F100" s="23">
         <v>8.379218997734073</v>
@@ -38601,7 +38583,7 @@
       </c>
       <c r="E101" s="23">
         <f>'High Speed System'!C127</f>
-        <v>9.6642832972723838</v>
+        <v>7.5795582806174195</v>
       </c>
       <c r="F101" s="23">
         <v>8.4758614718493916</v>
@@ -38625,7 +38607,7 @@
       </c>
       <c r="E102" s="23">
         <f>'High Speed System'!C128</f>
-        <v>9.6643495015146499</v>
+        <v>7.5826747120746196</v>
       </c>
       <c r="F102" s="23">
         <v>8.5725046411965753</v>
@@ -38649,7 +38631,7 @@
       </c>
       <c r="E103" s="23">
         <f>'High Speed System'!C129</f>
-        <v>9.6644095827620582</v>
+        <v>7.5856435339425179</v>
       </c>
       <c r="F103" s="23">
         <v>8.6691484414761053</v>
@@ -38673,7 +38655,7 @@
       </c>
       <c r="E104" s="23">
         <f>'High Speed System'!C130</f>
-        <v>9.6644641073086248</v>
+        <v>7.5884717377404725</v>
       </c>
       <c r="F104" s="23">
         <v>8.7657928143352937</v>
@@ -38697,7 +38679,7 @@
       </c>
       <c r="E105" s="23">
         <f>'High Speed System'!C131</f>
-        <v>9.6645135890738416</v>
+        <v>7.5911659838349408</v>
       </c>
       <c r="F105" s="23">
         <v>8.862437706818282</v>
@@ -38721,7 +38703,7 @@
       </c>
       <c r="E106" s="23">
         <f>'High Speed System'!C132</f>
-        <v>9.6645584944466183</v>
+        <v>7.5937326171245267</v>
       </c>
       <c r="F106" s="23">
         <v>8.9590830708669156</v>
@@ -38745,7 +38727,7 @@
       </c>
       <c r="E107" s="23">
         <f>'High Speed System'!C133</f>
-        <v>9.6645992466812114</v>
+        <v>7.5961776819820894</v>
       </c>
       <c r="F107" s="23">
         <v>9.0557288628677668</v>
@@ -38769,7 +38751,7 @@
       </c>
       <c r="E108" s="23">
         <f>'High Speed System'!C134</f>
-        <v>9.6646362298865967</v>
+        <v>7.5985069364891284</v>
       </c>
       <c r="F108" s="23">
         <v>9.1523750432410527</v>
@@ -38793,7 +38775,7 @@
       </c>
       <c r="E109" s="23">
         <f>'High Speed System'!C135</f>
-        <v>9.6646697926468761</v>
+        <v>7.6007258659959609</v>
       </c>
       <c r="F109" s="23">
         <v>9.2490215760675927</v>
@@ -38817,7 +38799,7 @@
       </c>
       <c r="E110" s="23">
         <f>'High Speed System'!C136</f>
-        <v>9.6647002513068543</v>
+        <v>7.602839696039613</v>
       </c>
       <c r="F110" s="23">
         <v>9.345668428750237</v>
@@ -38841,7 +38823,7 @@
       </c>
       <c r="E111" s="23">
         <f>'High Speed System'!C137</f>
-        <v>9.6647278929537208</v>
+        <v>7.6048534046498624</v>
       </c>
       <c r="F111" s="23">
         <v>9.4423155717066329</v>
@@ -38865,7 +38847,7 @@
       </c>
       <c r="E112" s="23">
         <f>'High Speed System'!C138</f>
-        <v>9.6647529781230013</v>
+        <v>7.6067717340724057</v>
       </c>
       <c r="F112" s="23">
         <v>9.5389629780903942</v>
@@ -38889,7 +38871,7 @@
       </c>
       <c r="E113" s="23">
         <f>'High Speed System'!C139</f>
-        <v>9.6647757432542107</v>
+        <v>7.6085992019367561</v>
       </c>
       <c r="F113" s="23">
         <v>9.6356106235380601</v>
@@ -38913,7 +38895,7 @@
       </c>
       <c r="E114" s="23">
         <f>'High Speed System'!C140</f>
-        <v>9.6647964029194178</v>
+        <v>7.610340111895173</v>
       </c>
       <c r="F114" s="23">
         <v>9.732258485939461</v>
@@ -38937,7 +38919,7 @@
       </c>
       <c r="E115" s="23">
         <f>'High Speed System'!C141</f>
-        <v>9.6648151518456835</v>
+        <v>7.6119985637576884</v>
       </c>
       <c r="F115" s="23">
         <v>9.8289065452293176</v>
@@ -38961,7 +38943,7 @@
       </c>
       <c r="E116" s="23">
         <f>'High Speed System'!C142</f>
-        <v>9.6648321667504575</v>
+        <v>7.613578463147074</v>
       </c>
       <c r="F116" s="23">
         <v>9.9255547831981161</v>
@@ -38985,7 +38967,7 @@
       </c>
       <c r="E117" s="23">
         <f>'High Speed System'!C143</f>
-        <v>9.6648476080072143</v>
+        <v>7.6150835306965146</v>
       </c>
       <c r="F117" s="23">
         <v>10.022203183320478</v>
@@ -39009,7 +38991,7 @@
       </c>
       <c r="E118" s="23">
         <f>'High Speed System'!C144</f>
-        <v>9.6648616211570655</v>
+        <v>7.616517310811628</v>
       </c>
       <c r="F118" s="23">
         <v>10.118851730599397</v>
@@ -39033,7 +39015,7 @@
       </c>
       <c r="E119" s="23">
         <f>'High Speed System'!C145</f>
-        <v>9.6648743382805353</v>
+        <v>7.6178831800174702</v>
       </c>
       <c r="F119" s="23">
         <v>10.215500411424886</v>
@@ -39057,7 +39039,7 @@
       </c>
       <c r="E120" s="23">
         <f>'High Speed System'!C146</f>
-        <v>9.6648858792424939</v>
+        <v>7.6191843549101907</v>
       </c>
       <c r="F120" s="23">
         <v>10.3121492134457</v>
@@ -39081,7 +39063,7 @@
       </c>
       <c r="E121" s="23">
         <f>'High Speed System'!C147</f>
-        <v>9.6648963528219376</v>
+        <v>7.6204238997320566</v>
       </c>
       <c r="F121" s="23">
         <v>10.408798125452911</v>
@@ -39105,7 +39087,7 @@
       </c>
       <c r="E122" s="23">
         <f>'High Speed System'!C148</f>
-        <v>9.6649058577372777</v>
+        <v>7.6216047335876818</v>
       </c>
       <c r="F122" s="23">
         <v>10.505447137274272</v>
@@ -39129,7 +39111,7 @@
       </c>
       <c r="E123" s="23">
         <f>'High Speed System'!C149</f>
-        <v>9.6649144835768084</v>
+        <v>7.6227296373184652</v>
       </c>
       <c r="F123" s="23">
         <v>10.602096239678323</v>
@@ -39153,7 +39135,7 @@
       </c>
       <c r="E124" s="23">
         <f>'High Speed System'!C150</f>
-        <v>9.6649223116431262</v>
+        <v>7.6238012600514198</v>
       </c>
       <c r="F124" s="23">
         <v>10.698745424287399</v>
@@ -39177,7 +39159,7 @@
       </c>
       <c r="E125" s="23">
         <f>'High Speed System'!C151</f>
-        <v>9.6649294157194383</v>
+        <v>7.6248221254378166</v>
       </c>
       <c r="F125" s="23">
         <v>10.795394683498644</v>
@@ -39201,7 +39183,7 @@
       </c>
       <c r="E126" s="23">
         <f>'High Speed System'!C152</f>
-        <v>9.6649358627650024</v>
+        <v>7.6257946375963357</v>
       </c>
       <c r="F126" s="23">
         <v>10.892044010412373</v>
@@ -39225,7 +39207,7 @@
       </c>
       <c r="E127" s="23">
         <f>'High Speed System'!C153</f>
-        <v>9.6649417135462592</v>
+        <v>7.6267210867747179</v>
       </c>
       <c r="F127" s="23">
         <v>10.988693398767019</v>
@@ -39249,7 +39231,7 @@
       </c>
       <c r="E128" s="23">
         <f>'High Speed System'!C154</f>
-        <v>9.6649470232095691</v>
+        <v>7.6276036547432602</v>
       </c>
       <c r="F128" s="23">
         <v>11.085342842880138</v>
@@ -39273,7 +39255,7 @@
       </c>
       <c r="E129" s="23">
         <f>'High Speed System'!C155</f>
-        <v>9.6649518418010079</v>
+        <v>7.6284444199328361</v>
       </c>
       <c r="F129" s="23">
         <v>11.181992337594821</v>
@@ -39297,7 +39279,7 @@
       </c>
       <c r="E130" s="23">
         <f>'High Speed System'!C156</f>
-        <v>9.6649562147380657</v>
+        <v>7.6292453623295682</v>
       </c>
       <c r="F130" s="23">
         <v>11.27864187823111</v>
@@ -39321,7 +39303,7 @@
       </c>
       <c r="E131" s="23">
         <f>'High Speed System'!C157</f>
-        <v>9.6649601832377314</v>
+        <v>7.6300083681376547</v>
       </c>
       <c r="F131" s="23">
         <v>11.375291460541881</v>
@@ -39345,7 +39327,7 @@
       </c>
       <c r="E132" s="23">
         <f>'High Speed System'!C158</f>
-        <v>9.6649637847049803</v>
+        <v>7.6307352342213433</v>
       </c>
       <c r="F132" s="23">
         <v>11.471941080672808</v>
@@ -39369,7 +39351,7 @@
       </c>
       <c r="E133" s="23">
         <f>'High Speed System'!C159</f>
-        <v>9.664967053085336</v>
+        <v>7.6314276723365175</v>
       </c>
       <c r="F133" s="23">
         <v>11.568590735126039</v>
@@ -39393,7 +39375,7 @@
       </c>
       <c r="E134" s="23">
         <f>'High Speed System'!C160</f>
-        <v>9.6649700191848176</v>
+        <v>7.6320873131618416</v>
       </c>
       <c r="F134" s="23">
         <v>11.665240420727226</v>
@@ -39417,7 +39399,7 @@
       </c>
       <c r="E135" s="23">
         <f>'High Speed System'!C161</f>
-        <v>9.6649727109603099</v>
+        <v>7.632715710138986</v>
       </c>
       <c r="F135" s="23">
         <v>11.761890134595609</v>
@@ -39441,7 +39423,7 @@
       </c>
       <c r="E136" s="23">
         <f>'High Speed System'!C162</f>
-        <v>9.6649751537830646</v>
+        <v>7.633314343130948</v>
       </c>
       <c r="F136" s="23">
         <v>11.858539874116852</v>
@@ -39465,7 +39447,7 @@
       </c>
       <c r="E137" s="23">
         <f>'High Speed System'!C163</f>
-        <v>9.6649773706778301</v>
+        <v>7.6338846219071028</v>
       </c>
       <c r="F137" s="23">
         <v>11.95518963691841</v>
@@ -39489,7 +39471,7 @@
       </c>
       <c r="E138" s="23">
         <f>'High Speed System'!C164</f>
-        <v>9.6649793825398866</v>
+        <v>7.6344278894631836</v>
       </c>
       <c r="F138" s="23">
         <v>12.051839420847179</v>
@@ -39513,7 +39495,7 @@
       </c>
       <c r="E139" s="23">
         <f>'High Speed System'!C165</f>
-        <v>9.6649812083319784</v>
+        <v>7.6349454251840125</v>
       </c>
       <c r="F139" s="23">
         <v>12.148489223949172</v>
@@ -39537,7 +39519,7 @@
       </c>
       <c r="E140" s="23">
         <f>'High Speed System'!C166</f>
-        <v>9.6649828652630543</v>
+        <v>7.6354384478564228</v>
       </c>
       <c r="F140" s="23">
         <v>12.245139044451125</v>
@@ -39561,7 +39543,7 @@
       </c>
       <c r="E141" s="23">
         <f>'High Speed System'!C167</f>
-        <v>9.6649843689504689</v>
+        <v>7.6359081185394864</v>
       </c>
       <c r="F141" s="23">
         <v>12.341788880743781</v>
@@ -39585,7 +39567,7 @@
       </c>
       <c r="E142" s="23">
         <f>'High Speed System'!C168</f>
-        <v>9.6649857335671836</v>
+        <v>7.6363555432987793</v>
       </c>
       <c r="F142" s="23">
         <v>12.438438731366711</v>
@@ -39609,7 +39591,7 @@
       </c>
       <c r="E143" s="23">
         <f>'High Speed System'!C169</f>
-        <v>9.6649869719753525</v>
+        <v>7.6367817758111487</v>
       </c>
       <c r="F143" s="23">
         <v>12.535088594994559</v>
@@ -39633,7 +39615,7 @@
       </c>
       <c r="E144" s="23">
         <f>'High Speed System'!C170</f>
-        <v>9.6649880958475567</v>
+        <v>7.6371878198460994</v>
       </c>
       <c r="F144" s="23">
         <v>12.631738470424551</v>
@@ -39657,7 +39639,7 @@
       </c>
       <c r="E145" s="23">
         <f>'High Speed System'!C171</f>
-        <v>9.6649891157768177</v>
+        <v>7.6375746316296569</v>
       </c>
       <c r="F145" s="23">
         <v>12.728388356565146</v>
@@ -39681,7 +39663,7 @@
       </c>
       <c r="E146" s="23">
         <f>'High Speed System'!C172</f>
-        <v>9.6649900413764485</v>
+        <v>7.6379431220962557</v>
       </c>
       <c r="F146" s="23">
         <v>12.825038252425754</v>
@@ -39705,7 +39687,7 @@
       </c>
       <c r="E147" s="23">
         <f>'High Speed System'!C173</f>
-        <v>9.6649908813706631</v>
+        <v>7.6382941590339755</v>
       </c>
       <c r="F147" s="23">
         <v>12.921688157107413</v>
@@ -39729,7 +39711,7 @@
       </c>
       <c r="E148" s="23">
         <f>'High Speed System'!C174</f>
-        <v>9.6649916436768031</v>
+        <v>7.6386285691281675</v>
       </c>
       <c r="F148" s="23">
         <v>13.018338069794289</v>
@@ -39753,7 +39735,7 @@
       </c>
       <c r="E149" s="23">
         <f>'High Speed System'!C175</f>
-        <v>9.6649923354799583</v>
+        <v>7.6389471399082778</v>
       </c>
       <c r="F149" s="23">
         <v>13.114987989746012</v>
@@ -39777,7 +39759,7 @@
       </c>
       <c r="E150" s="23">
         <f>'High Speed System'!C176</f>
-        <v>9.6649929633006995</v>
+        <v>7.6392506216024714</v>
       </c>
       <c r="F150" s="23">
         <v>13.211637916290679</v>
@@ -39801,7 +39783,7 @@
       </c>
       <c r="E151" s="23">
         <f>'High Speed System'!C177</f>
-        <v>9.6649935330565349</v>
+        <v>7.6395397289043965</v>
       </c>
       <c r="F151" s="23">
         <v>13.308287848818535</v>
@@ -39825,7 +39807,7 @@
       </c>
       <c r="E152" s="23">
         <f>'High Speed System'!C178</f>
-        <v>9.664994050117679</v>
+        <v>7.6398151426562837</v>
       </c>
       <c r="F152" s="23">
         <v>13.404937786776218</v>
@@ -39849,7 +39831,7 @@
       </c>
       <c r="E153" s="23">
         <f>'High Speed System'!C179</f>
-        <v>9.6649945193576787</v>
+        <v>7.6400775114523087</v>
       </c>
       <c r="F153" s="23">
         <v>13.501587729661535</v>
@@ -39870,7 +39852,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40064,7 +40046,7 @@
   </sheetPr>
   <dimension ref="A1:X332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -40376,15 +40358,15 @@
         <v>1E-3</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:C93" si="0">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B30/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
+        <f t="shared" ref="C30:C54" si="0">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B30/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
         <v>0.37545496774359943</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:D93" si="1">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B30/$B$21/$B$25) + (4*$B$23*B30)) / (8*$B$23*$B$23)</f>
+        <f t="shared" ref="D30:D54" si="1">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B30/$B$21/$B$25) + (4*$B$23*B30)) / (8*$B$23*$B$23)</f>
         <v>-1.0961404136202843E-3</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ref="E30:E93" si="2">-(D30-$D$29)</f>
+        <f t="shared" ref="E30:E54" si="2">-(D30-$D$29)</f>
         <v>2.1196213538756325E-4</v>
       </c>
       <c r="T30" s="20"/>
@@ -43997,15 +43979,15 @@
         <v>1E-3</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:C93" si="0">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B30/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
+        <f t="shared" ref="C30:C54" si="0">(($B$21*$B$22/2/$B$23)-($B$24/$B$23))*EXP(-4*$B$23*B30/$B$21/$B$25) - ($B$21*$B$22/2/$B$23) + ($B$24/$B$23)</f>
         <v>0.31445081762675231</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:D93" si="1">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B30/$B$21/$B$25) + (4*$B$23*B30)) / (8*$B$23*$B$23)</f>
+        <f t="shared" ref="D30:D54" si="1">($B$21*$B$22 - 2*$B$24) * ($B$21*$B$25*EXP(-4*$B$23*B30/$B$21/$B$25) + (4*$B$23*B30)) / (8*$B$23*$B$23)</f>
         <v>-9.1803885661198808E-4</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ref="E30:E93" si="2">-(D30-$D$29)</f>
+        <f t="shared" ref="E30:E54" si="2">-(D30-$D$29)</f>
         <v>1.7752239950131251E-4</v>
       </c>
       <c r="T30" s="20"/>
